--- a/JupyterNotebooks/AvgHW/Alpha4F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.003155745524571</v>
+      </c>
+      <c r="D3">
         <v>1.005365196407102</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1.005404237580966</v>
+      </c>
+      <c r="F3">
+        <v>0.9933252718687576</v>
+      </c>
+      <c r="G3">
+        <v>1.005365196407102</v>
+      </c>
+      <c r="H3">
         <v>0.986578116750596</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>1.002246504412415</v>
-      </c>
-      <c r="F3">
-        <v>1.005365196407102</v>
-      </c>
-      <c r="G3">
-        <v>1.005404237580966</v>
-      </c>
-      <c r="H3">
-        <v>0.9933252718687576</v>
-      </c>
-      <c r="I3">
-        <v>1.003155745524571</v>
       </c>
       <c r="J3">
         <v>0.986578116750596</v>
@@ -788,7 +680,7 @@
         <v>0.9993458454240681</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.006096129136502</v>
+      </c>
+      <c r="D4">
         <v>1.010460907529823</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.010336546194603</v>
+      </c>
+      <c r="F4">
+        <v>0.9871098057784395</v>
+      </c>
+      <c r="G4">
+        <v>1.010460907529823</v>
+      </c>
+      <c r="H4">
         <v>0.9740498373656273</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>1.004299918606642</v>
-      </c>
-      <c r="F4">
-        <v>1.010460907529823</v>
-      </c>
-      <c r="G4">
-        <v>1.010336546194603</v>
-      </c>
-      <c r="H4">
-        <v>0.9871098057784395</v>
-      </c>
-      <c r="I4">
-        <v>1.006096129136502</v>
       </c>
       <c r="J4">
         <v>0.9740498373656273</v>
@@ -850,7 +742,7 @@
         <v>0.9987255241019395</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.011642648721267</v>
+      </c>
+      <c r="D5">
         <v>1.019399382369005</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.020495644598808</v>
+      </c>
+      <c r="F5">
+        <v>0.9753207719911369</v>
+      </c>
+      <c r="G5">
+        <v>1.019399382369005</v>
+      </c>
+      <c r="H5">
         <v>0.9506381040078187</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>1.008450566558396</v>
-      </c>
-      <c r="F5">
-        <v>1.019399382369005</v>
-      </c>
-      <c r="G5">
-        <v>1.020495644598808</v>
-      </c>
-      <c r="H5">
-        <v>0.9753207719911369</v>
-      </c>
-      <c r="I5">
-        <v>1.011642648721267</v>
       </c>
       <c r="J5">
         <v>0.9506381040078187</v>
@@ -912,7 +804,7 @@
         <v>0.9976578530410718</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.01706214035309</v>
+      </c>
+      <c r="D6">
         <v>1.028136239941977</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.030368488095845</v>
+      </c>
+      <c r="F6">
+        <v>0.9638148333672143</v>
+      </c>
+      <c r="G6">
+        <v>1.028136239941977</v>
+      </c>
+      <c r="H6">
         <v>0.9277496916867906</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>1.012504882642339</v>
-      </c>
-      <c r="F6">
-        <v>1.028136239941977</v>
-      </c>
-      <c r="G6">
-        <v>1.030368488095845</v>
-      </c>
-      <c r="H6">
-        <v>0.9638148333672143</v>
-      </c>
-      <c r="I6">
-        <v>1.01706214035309</v>
       </c>
       <c r="J6">
         <v>0.9277496916867906</v>
@@ -974,7 +866,7 @@
         <v>0.9966060460145426</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,31 +874,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000054366479301</v>
+        <v>1.000203765378573</v>
       </c>
       <c r="D7">
-        <v>0.9992448428977605</v>
+        <v>1.000054366479302</v>
       </c>
       <c r="E7">
+        <v>1.000759366585184</v>
+      </c>
+      <c r="F7">
+        <v>0.9995301067669025</v>
+      </c>
+      <c r="G7">
+        <v>1.000054366479302</v>
+      </c>
+      <c r="H7">
+        <v>0.9992448428977604</v>
+      </c>
+      <c r="I7">
         <v>1.000265244817223</v>
       </c>
-      <c r="F7">
-        <v>1.000054366479301</v>
-      </c>
-      <c r="G7">
-        <v>1.000759366585184</v>
-      </c>
-      <c r="H7">
-        <v>0.9995301067669025</v>
-      </c>
-      <c r="I7">
-        <v>1.000203765378573</v>
-      </c>
       <c r="J7">
-        <v>0.9992448428977605</v>
+        <v>0.9992448428977604</v>
       </c>
       <c r="K7">
-        <v>1.000054366479301</v>
+        <v>1.000054366479302</v>
       </c>
       <c r="L7">
         <v>1.000265244817223</v>
@@ -1021,22 +913,22 @@
         <v>0.9996800648272952</v>
       </c>
       <c r="P7">
-        <v>0.9998548180647614</v>
+        <v>0.9998548180647616</v>
       </c>
       <c r="Q7">
-        <v>0.9998548180647614</v>
+        <v>0.9998548180647616</v>
       </c>
       <c r="R7">
-        <v>0.9999047051683965</v>
+        <v>0.9999047051683966</v>
       </c>
       <c r="S7">
-        <v>0.9999047051683965</v>
+        <v>0.9999047051683966</v>
       </c>
       <c r="T7">
-        <v>1.00000961548749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>1.000009615487491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000547164225321</v>
+      </c>
+      <c r="D8">
         <v>1.000259468704766</v>
       </c>
-      <c r="D8">
-        <v>0.9979339241063845</v>
-      </c>
       <c r="E8">
+        <v>1.001889403859237</v>
+      </c>
+      <c r="F8">
+        <v>0.9987505276911623</v>
+      </c>
+      <c r="G8">
+        <v>1.000259468704766</v>
+      </c>
+      <c r="H8">
+        <v>0.9979339241063843</v>
+      </c>
+      <c r="I8">
         <v>1.000665556130867</v>
       </c>
-      <c r="F8">
-        <v>1.000259468704766</v>
-      </c>
-      <c r="G8">
-        <v>1.001889403859237</v>
-      </c>
-      <c r="H8">
-        <v>0.9987505276911623</v>
-      </c>
-      <c r="I8">
-        <v>1.000547164225321</v>
-      </c>
       <c r="J8">
-        <v>0.9979339241063845</v>
+        <v>0.9979339241063843</v>
       </c>
       <c r="K8">
         <v>1.000259468704766</v>
@@ -1074,31 +966,31 @@
         <v>1.000665556130867</v>
       </c>
       <c r="M8">
-        <v>0.9992997401186255</v>
+        <v>0.9992997401186254</v>
       </c>
       <c r="N8">
-        <v>0.9992997401186255</v>
+        <v>0.9992997401186254</v>
       </c>
       <c r="O8">
         <v>0.9991166693094712</v>
       </c>
       <c r="P8">
-        <v>0.9996196496473392</v>
+        <v>0.999619649647339</v>
       </c>
       <c r="Q8">
-        <v>0.9996196496473392</v>
+        <v>0.999619649647339</v>
       </c>
       <c r="R8">
-        <v>0.999779604411696</v>
+        <v>0.9997796044116958</v>
       </c>
       <c r="S8">
-        <v>0.999779604411696</v>
+        <v>0.9997796044116958</v>
       </c>
       <c r="T8">
         <v>1.000007674119623</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000765857642032</v>
+      </c>
+      <c r="D9">
         <v>1.000575244977881</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1.002381768553074</v>
+      </c>
+      <c r="F9">
+        <v>0.9982697862523308</v>
+      </c>
+      <c r="G9">
+        <v>1.000575244977881</v>
+      </c>
+      <c r="H9">
         <v>0.9970406348484514</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <v>1.000844297121204</v>
-      </c>
-      <c r="F9">
-        <v>1.000575244977881</v>
-      </c>
-      <c r="G9">
-        <v>1.002381768553075</v>
-      </c>
-      <c r="H9">
-        <v>0.9982697862523308</v>
-      </c>
-      <c r="I9">
-        <v>1.000765857642032</v>
       </c>
       <c r="J9">
         <v>0.9970406348484514</v>
@@ -1160,7 +1052,7 @@
         <v>0.9999795982324956</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.001643348738755</v>
+      </c>
+      <c r="D10">
         <v>1.000975598991749</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.005449498408287</v>
+      </c>
+      <c r="F10">
+        <v>0.9962599649622478</v>
+      </c>
+      <c r="G10">
+        <v>1.000975598991749</v>
+      </c>
+      <c r="H10">
         <v>0.9937362367468814</v>
       </c>
-      <c r="E10">
+      <c r="I10">
         <v>1.00191814260516</v>
-      </c>
-      <c r="F10">
-        <v>1.000975598991749</v>
-      </c>
-      <c r="G10">
-        <v>1.005449498408287</v>
-      </c>
-      <c r="H10">
-        <v>0.9962599649622478</v>
-      </c>
-      <c r="I10">
-        <v>1.001643348738755</v>
       </c>
       <c r="J10">
         <v>0.9937362367468814</v>
@@ -1222,7 +1114,7 @@
         <v>0.9999971317421803</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.002752248169297</v>
+      </c>
+      <c r="D11">
         <v>1.002231334860984</v>
       </c>
-      <c r="D11">
-        <v>0.9893352998904347</v>
-      </c>
       <c r="E11">
+        <v>1.008383490291586</v>
+      </c>
+      <c r="F11">
+        <v>0.9937878492534266</v>
+      </c>
+      <c r="G11">
+        <v>1.002231334860984</v>
+      </c>
+      <c r="H11">
+        <v>0.9893352998904349</v>
+      </c>
+      <c r="I11">
         <v>1.002966616226972</v>
       </c>
-      <c r="F11">
-        <v>1.002231334860984</v>
-      </c>
-      <c r="G11">
-        <v>1.008383490291586</v>
-      </c>
-      <c r="H11">
-        <v>0.9937878492534266</v>
-      </c>
-      <c r="I11">
-        <v>1.002752248169297</v>
-      </c>
       <c r="J11">
-        <v>0.9893352998904347</v>
+        <v>0.9893352998904349</v>
       </c>
       <c r="K11">
         <v>1.002231334860984</v>
@@ -1260,31 +1152,31 @@
         <v>1.002966616226972</v>
       </c>
       <c r="M11">
-        <v>0.9961509580587031</v>
+        <v>0.9961509580587034</v>
       </c>
       <c r="N11">
-        <v>0.9961509580587031</v>
+        <v>0.9961509580587034</v>
       </c>
       <c r="O11">
-        <v>0.9953632551236109</v>
+        <v>0.995363255123611</v>
       </c>
       <c r="P11">
-        <v>0.9981777503261299</v>
+        <v>0.9981777503261302</v>
       </c>
       <c r="Q11">
-        <v>0.9981777503261299</v>
+        <v>0.9981777503261302</v>
       </c>
       <c r="R11">
-        <v>0.9991911464598433</v>
+        <v>0.9991911464598435</v>
       </c>
       <c r="S11">
-        <v>0.9991911464598433</v>
+        <v>0.9991911464598435</v>
       </c>
       <c r="T11">
-        <v>0.99990947311545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9999094731154502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9717776769041253</v>
+      </c>
+      <c r="D12">
         <v>0.9901030767426142</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>0.8867789051632528</v>
+      </c>
+      <c r="F12">
+        <v>1.068026997146558</v>
+      </c>
+      <c r="G12">
+        <v>0.9901030767426142</v>
+      </c>
+      <c r="H12">
         <v>1.099604240450639</v>
       </c>
-      <c r="E12">
-        <v>0.9642363627479091</v>
-      </c>
-      <c r="F12">
-        <v>0.9901030767426142</v>
-      </c>
-      <c r="G12">
-        <v>0.8867789051632528</v>
-      </c>
-      <c r="H12">
-        <v>1.068026997146558</v>
-      </c>
       <c r="I12">
-        <v>0.9717776769041253</v>
+        <v>0.964236362747909</v>
       </c>
       <c r="J12">
         <v>1.099604240450639</v>
@@ -1319,7 +1211,7 @@
         <v>0.9901030767426142</v>
       </c>
       <c r="L12">
-        <v>0.9642363627479091</v>
+        <v>0.964236362747909</v>
       </c>
       <c r="M12">
         <v>1.031920301599274</v>
@@ -1346,7 +1238,7 @@
         <v>0.9967545431925164</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9900205063305437</v>
+      </c>
+      <c r="D13">
         <v>0.9865851264171546</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>0.993867543274467</v>
+      </c>
+      <c r="F13">
+        <v>1.017027769342142</v>
+      </c>
+      <c r="G13">
+        <v>0.9865851264171546</v>
+      </c>
+      <c r="H13">
         <v>1.049169319746993</v>
       </c>
-      <c r="E13">
+      <c r="I13">
         <v>0.9914342401947632</v>
-      </c>
-      <c r="F13">
-        <v>0.9865851264171546</v>
-      </c>
-      <c r="G13">
-        <v>0.9938675432744671</v>
-      </c>
-      <c r="H13">
-        <v>1.017027769342142</v>
-      </c>
-      <c r="I13">
-        <v>0.9900205063305436</v>
       </c>
       <c r="J13">
         <v>1.049169319746993</v>
@@ -1408,7 +1300,7 @@
         <v>1.004684084217677</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,40 +1308,40 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9233386069230317</v>
+      </c>
+      <c r="D14">
         <v>0.9274202683663757</v>
       </c>
-      <c r="D14">
-        <v>1.313469549711591</v>
-      </c>
       <c r="E14">
-        <v>0.9216589060513285</v>
+        <v>0.8060634505657658</v>
       </c>
       <c r="F14">
+        <v>1.164549136715304</v>
+      </c>
+      <c r="G14">
         <v>0.9274202683663757</v>
       </c>
-      <c r="G14">
-        <v>0.8060634505657658</v>
-      </c>
       <c r="H14">
-        <v>1.164549136715304</v>
+        <v>1.31346954971159</v>
       </c>
       <c r="I14">
-        <v>0.9233386069230317</v>
+        <v>0.9216589060513284</v>
       </c>
       <c r="J14">
-        <v>1.313469549711591</v>
+        <v>1.31346954971159</v>
       </c>
       <c r="K14">
         <v>0.9274202683663757</v>
       </c>
       <c r="L14">
-        <v>0.9216589060513285</v>
+        <v>0.9216589060513284</v>
       </c>
       <c r="M14">
-        <v>1.11756422788146</v>
+        <v>1.117564227881459</v>
       </c>
       <c r="N14">
-        <v>1.11756422788146</v>
+        <v>1.117564227881459</v>
       </c>
       <c r="O14">
         <v>1.133225864159408</v>
@@ -1470,7 +1362,7 @@
         <v>1.009416653055566</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9815505541449745</v>
+      </c>
+      <c r="D15">
         <v>0.9732590742496815</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0.9427257328289709</v>
+      </c>
+      <c r="F15">
+        <v>1.045189528217952</v>
+      </c>
+      <c r="G15">
+        <v>0.9732590742496815</v>
+      </c>
+      <c r="H15">
         <v>1.066254135915258</v>
       </c>
-      <c r="E15">
+      <c r="I15">
         <v>0.9849626965304025</v>
-      </c>
-      <c r="F15">
-        <v>0.9732590742496815</v>
-      </c>
-      <c r="G15">
-        <v>0.9427257328289709</v>
-      </c>
-      <c r="H15">
-        <v>1.045189528217952</v>
-      </c>
-      <c r="I15">
-        <v>0.9815505541449745</v>
       </c>
       <c r="J15">
         <v>1.066254135915258</v>
@@ -1532,7 +1424,7 @@
         <v>0.9989902869812067</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9991331215880666</v>
+        <v>1.061127101240299</v>
       </c>
       <c r="D16">
-        <v>1.000371142783852</v>
+        <v>1.098531299852601</v>
       </c>
       <c r="E16">
-        <v>1.000310964291359</v>
+        <v>1.112180145555039</v>
       </c>
       <c r="F16">
-        <v>0.9991331215880666</v>
+        <v>0.8700136782972958</v>
       </c>
       <c r="G16">
-        <v>1.000911852486282</v>
+        <v>1.098531299852601</v>
       </c>
       <c r="H16">
-        <v>1.000008773383888</v>
+        <v>0.7420374719164387</v>
       </c>
       <c r="I16">
-        <v>0.9999675710378897</v>
+        <v>1.045734401556775</v>
       </c>
       <c r="J16">
-        <v>1.000371142783852</v>
+        <v>0.7420374719164387</v>
       </c>
       <c r="K16">
-        <v>0.9991331215880666</v>
+        <v>1.098531299852601</v>
       </c>
       <c r="L16">
-        <v>1.000310964291359</v>
+        <v>1.045734401556775</v>
       </c>
       <c r="M16">
-        <v>1.000341053537606</v>
+        <v>0.8938859367366068</v>
       </c>
       <c r="N16">
-        <v>1.000341053537606</v>
+        <v>0.8938859367366068</v>
       </c>
       <c r="O16">
-        <v>1.000230293486366</v>
+        <v>0.8859285172568364</v>
       </c>
       <c r="P16">
-        <v>0.9999384095544258</v>
+        <v>0.9621010577752714</v>
       </c>
       <c r="Q16">
-        <v>0.9999384095544258</v>
+        <v>0.9621010577752714</v>
       </c>
       <c r="R16">
-        <v>0.999737087562836</v>
+        <v>0.9962086182946038</v>
       </c>
       <c r="S16">
-        <v>0.999737087562836</v>
+        <v>0.9962086182946038</v>
       </c>
       <c r="T16">
-        <v>1.000117237595223</v>
+        <v>0.9882706830697413</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001214540413198</v>
+        <v>1.049193407734775</v>
       </c>
       <c r="D17">
-        <v>0.9985149973408972</v>
+        <v>1.068416989379172</v>
       </c>
       <c r="E17">
-        <v>0.9999341317216691</v>
+        <v>1.105201278182004</v>
       </c>
       <c r="F17">
-        <v>1.001214540413198</v>
+        <v>0.8940430649410015</v>
       </c>
       <c r="G17">
-        <v>0.9997623617459513</v>
+        <v>1.068416989379172</v>
       </c>
       <c r="H17">
-        <v>0.9993844522872853</v>
+        <v>0.7963896983374683</v>
       </c>
       <c r="I17">
-        <v>1.000307429628099</v>
+        <v>1.041282452017314</v>
       </c>
       <c r="J17">
-        <v>0.9985149973408972</v>
+        <v>0.7963896983374683</v>
       </c>
       <c r="K17">
-        <v>1.001214540413198</v>
+        <v>1.068416989379172</v>
       </c>
       <c r="L17">
-        <v>0.9999341317216691</v>
+        <v>1.041282452017314</v>
       </c>
       <c r="M17">
-        <v>0.9992245645312832</v>
+        <v>0.9188360751773911</v>
       </c>
       <c r="N17">
-        <v>0.9992245645312832</v>
+        <v>0.9188360751773911</v>
       </c>
       <c r="O17">
-        <v>0.9992778604499506</v>
+        <v>0.910571738431928</v>
       </c>
       <c r="P17">
-        <v>0.9998878898252549</v>
+        <v>0.9686963799113181</v>
       </c>
       <c r="Q17">
-        <v>0.9998878898252549</v>
+        <v>0.9686963799113181</v>
       </c>
       <c r="R17">
-        <v>1.000219552472241</v>
+        <v>0.9936265322782816</v>
       </c>
       <c r="S17">
-        <v>1.000219552472241</v>
+        <v>0.9936265322782816</v>
       </c>
       <c r="T17">
-        <v>0.9998529855228502</v>
+        <v>0.9924211484319557</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9994224523830879</v>
+        <v>1.025255900241188</v>
       </c>
       <c r="D18">
-        <v>0.9969090791139731</v>
+        <v>1.008618904787232</v>
       </c>
       <c r="E18">
-        <v>1.001454119261293</v>
+        <v>1.090399607495475</v>
       </c>
       <c r="F18">
-        <v>0.9994224523830879</v>
+        <v>0.9423096750502921</v>
       </c>
       <c r="G18">
-        <v>1.003872630583299</v>
+        <v>1.008618904787232</v>
       </c>
       <c r="H18">
-        <v>0.9980367279288511</v>
+        <v>0.9052054453991041</v>
       </c>
       <c r="I18">
-        <v>1.0008617953749</v>
+        <v>1.032102402693771</v>
       </c>
       <c r="J18">
-        <v>0.9969090791139731</v>
+        <v>0.9052054453991041</v>
       </c>
       <c r="K18">
-        <v>0.9994224523830879</v>
+        <v>1.008618904787232</v>
       </c>
       <c r="L18">
-        <v>1.001454119261293</v>
+        <v>1.032102402693771</v>
       </c>
       <c r="M18">
-        <v>0.9991815991876332</v>
+        <v>0.9686539240464375</v>
       </c>
       <c r="N18">
-        <v>0.9991815991876332</v>
+        <v>0.9686539240464375</v>
       </c>
       <c r="O18">
-        <v>0.9987999754347058</v>
+        <v>0.959872507714389</v>
       </c>
       <c r="P18">
-        <v>0.9992618835861181</v>
+        <v>0.981975584293369</v>
       </c>
       <c r="Q18">
-        <v>0.9992618835861181</v>
+        <v>0.981975584293369</v>
       </c>
       <c r="R18">
-        <v>0.9993020257853605</v>
+        <v>0.9886364144168346</v>
       </c>
       <c r="S18">
-        <v>0.9993020257853605</v>
+        <v>0.9886364144168346</v>
       </c>
       <c r="T18">
-        <v>1.000092800774234</v>
+        <v>1.00064865594451</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.027393895128293</v>
+      </c>
+      <c r="D19">
+        <v>1.003349789960204</v>
+      </c>
+      <c r="E19">
+        <v>1.106100348497818</v>
+      </c>
+      <c r="F19">
+        <v>0.9367301855147157</v>
+      </c>
+      <c r="G19">
+        <v>1.003349789960204</v>
+      </c>
+      <c r="H19">
+        <v>0.8993311078379523</v>
+      </c>
+      <c r="I19">
+        <v>1.03728859118828</v>
+      </c>
+      <c r="J19">
+        <v>0.8993311078379523</v>
+      </c>
+      <c r="K19">
+        <v>1.003349789960204</v>
+      </c>
+      <c r="L19">
+        <v>1.03728859118828</v>
+      </c>
+      <c r="M19">
+        <v>0.9683098495131164</v>
+      </c>
+      <c r="N19">
+        <v>0.9683098495131164</v>
+      </c>
+      <c r="O19">
+        <v>0.9577832948469828</v>
+      </c>
+      <c r="P19">
+        <v>0.9799898296621455</v>
+      </c>
+      <c r="Q19">
+        <v>0.9799898296621454</v>
+      </c>
+      <c r="R19">
+        <v>0.98582981973666</v>
+      </c>
+      <c r="S19">
+        <v>0.98582981973666</v>
+      </c>
+      <c r="T19">
+        <v>1.001698986354544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999675710378897</v>
+      </c>
+      <c r="D20">
+        <v>0.9991331215880667</v>
+      </c>
+      <c r="E20">
+        <v>1.000911852486282</v>
+      </c>
+      <c r="F20">
+        <v>1.000008773383888</v>
+      </c>
+      <c r="G20">
+        <v>0.9991331215880667</v>
+      </c>
+      <c r="H20">
+        <v>1.000371142783851</v>
+      </c>
+      <c r="I20">
+        <v>1.000310964291359</v>
+      </c>
+      <c r="J20">
+        <v>1.000371142783851</v>
+      </c>
+      <c r="K20">
+        <v>0.9991331215880667</v>
+      </c>
+      <c r="L20">
+        <v>1.000310964291359</v>
+      </c>
+      <c r="M20">
+        <v>1.000341053537605</v>
+      </c>
+      <c r="N20">
+        <v>1.000341053537605</v>
+      </c>
+      <c r="O20">
+        <v>1.000230293486366</v>
+      </c>
+      <c r="P20">
+        <v>0.9999384095544257</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999384095544256</v>
+      </c>
+      <c r="R20">
+        <v>0.9997370875628359</v>
+      </c>
+      <c r="S20">
+        <v>0.9997370875628359</v>
+      </c>
+      <c r="T20">
+        <v>1.000117237595223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.0003074296281</v>
+      </c>
+      <c r="D21">
+        <v>1.001214540413198</v>
+      </c>
+      <c r="E21">
+        <v>0.9997623617459513</v>
+      </c>
+      <c r="F21">
+        <v>0.9993844522872851</v>
+      </c>
+      <c r="G21">
+        <v>1.001214540413198</v>
+      </c>
+      <c r="H21">
+        <v>0.9985149973408974</v>
+      </c>
+      <c r="I21">
+        <v>0.999934131721669</v>
+      </c>
+      <c r="J21">
+        <v>0.9985149973408974</v>
+      </c>
+      <c r="K21">
+        <v>1.001214540413198</v>
+      </c>
+      <c r="L21">
+        <v>0.999934131721669</v>
+      </c>
+      <c r="M21">
+        <v>0.9992245645312832</v>
+      </c>
+      <c r="N21">
+        <v>0.9992245645312832</v>
+      </c>
+      <c r="O21">
+        <v>0.9992778604499505</v>
+      </c>
+      <c r="P21">
+        <v>0.9998878898252549</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998878898252549</v>
+      </c>
+      <c r="R21">
+        <v>1.000219552472241</v>
+      </c>
+      <c r="S21">
+        <v>1.000219552472241</v>
+      </c>
+      <c r="T21">
+        <v>0.9998529855228501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.0008617953749</v>
+      </c>
+      <c r="D22">
+        <v>0.9994224523830879</v>
+      </c>
+      <c r="E22">
+        <v>1.003872630583299</v>
+      </c>
+      <c r="F22">
+        <v>0.998036727928851</v>
+      </c>
+      <c r="G22">
+        <v>0.9994224523830879</v>
+      </c>
+      <c r="H22">
+        <v>0.9969090791139724</v>
+      </c>
+      <c r="I22">
+        <v>1.001454119261293</v>
+      </c>
+      <c r="J22">
+        <v>0.9969090791139724</v>
+      </c>
+      <c r="K22">
+        <v>0.9994224523830879</v>
+      </c>
+      <c r="L22">
+        <v>1.001454119261293</v>
+      </c>
+      <c r="M22">
+        <v>0.9991815991876327</v>
+      </c>
+      <c r="N22">
+        <v>0.9991815991876327</v>
+      </c>
+      <c r="O22">
+        <v>0.9987999754347054</v>
+      </c>
+      <c r="P22">
+        <v>0.9992618835861178</v>
+      </c>
+      <c r="Q22">
+        <v>0.9992618835861178</v>
+      </c>
+      <c r="R22">
+        <v>0.9993020257853603</v>
+      </c>
+      <c r="S22">
+        <v>0.9993020257853603</v>
+      </c>
+      <c r="T22">
+        <v>1.000092800774234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001922684733165</v>
+      </c>
+      <c r="D23">
         <v>0.9959658868719966</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.011527121447685</v>
+      </c>
+      <c r="F23">
+        <v>0.9955245923848166</v>
+      </c>
+      <c r="G23">
+        <v>0.9959658868719966</v>
+      </c>
+      <c r="H23">
         <v>0.9937255319926425</v>
       </c>
-      <c r="E19">
+      <c r="I23">
         <v>1.004374040860381</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.9937255319926425</v>
+      </c>
+      <c r="K23">
         <v>0.9959658868719966</v>
       </c>
-      <c r="G19">
-        <v>1.011527121447685</v>
-      </c>
-      <c r="H19">
-        <v>0.9955245923848166</v>
-      </c>
-      <c r="I19">
-        <v>1.001922684733165</v>
-      </c>
-      <c r="J19">
-        <v>0.9937255319926425</v>
-      </c>
-      <c r="K19">
-        <v>0.9959658868719966</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.004374040860381</v>
       </c>
-      <c r="M19">
-        <v>0.9990497864265115</v>
-      </c>
-      <c r="N19">
-        <v>0.9990497864265115</v>
-      </c>
-      <c r="O19">
+      <c r="M23">
+        <v>0.9990497864265118</v>
+      </c>
+      <c r="N23">
+        <v>0.9990497864265118</v>
+      </c>
+      <c r="O23">
         <v>0.9978747217459466</v>
       </c>
-      <c r="P19">
+      <c r="P23">
+        <v>0.99802181990834</v>
+      </c>
+      <c r="Q23">
         <v>0.9980218199083399</v>
       </c>
-      <c r="Q19">
-        <v>0.9980218199083399</v>
-      </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9975078366492541</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9975078366492541</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000506643048448</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.003155745524571</v>
+        <v>1.030666590389046</v>
       </c>
       <c r="D3">
-        <v>1.005365196407102</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="E3">
-        <v>1.005404237580966</v>
+        <v>1.107265454524491</v>
       </c>
       <c r="F3">
-        <v>0.9933252718687576</v>
+        <v>0.9301767551296822</v>
       </c>
       <c r="G3">
-        <v>1.005365196407102</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="H3">
-        <v>0.986578116750596</v>
+        <v>0.8842290567146981</v>
       </c>
       <c r="I3">
-        <v>1.002246504412415</v>
+        <v>1.038230588278098</v>
       </c>
       <c r="J3">
-        <v>0.986578116750596</v>
+        <v>0.8842290567146981</v>
       </c>
       <c r="K3">
-        <v>1.005365196407102</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="L3">
-        <v>1.002246504412415</v>
+        <v>1.038230588278098</v>
       </c>
       <c r="M3">
-        <v>0.9944123105815057</v>
+        <v>0.9612298224963978</v>
       </c>
       <c r="N3">
-        <v>0.9944123105815057</v>
+        <v>0.9612298224963978</v>
       </c>
       <c r="O3">
-        <v>0.994049964343923</v>
+        <v>0.9508788000408259</v>
       </c>
       <c r="P3">
-        <v>0.9980632725233711</v>
+        <v>0.9782485741426511</v>
       </c>
       <c r="Q3">
-        <v>0.9980632725233711</v>
+        <v>0.9782485741426511</v>
       </c>
       <c r="R3">
-        <v>0.999888753494304</v>
+        <v>0.9867579499657778</v>
       </c>
       <c r="S3">
-        <v>0.999888753494304</v>
+        <v>0.9867579499657778</v>
       </c>
       <c r="T3">
-        <v>0.9993458454240681</v>
+        <v>1.000475753745195</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.006096129136502</v>
+        <v>1.027717433993663</v>
       </c>
       <c r="D4">
-        <v>1.010460907529823</v>
+        <v>1.009921186708914</v>
       </c>
       <c r="E4">
-        <v>1.010336546194603</v>
+        <v>1.098527358879993</v>
       </c>
       <c r="F4">
-        <v>0.9871098057784395</v>
+        <v>0.9367578357156146</v>
       </c>
       <c r="G4">
-        <v>1.010460907529823</v>
+        <v>1.009921186708914</v>
       </c>
       <c r="H4">
-        <v>0.9740498373656273</v>
+        <v>0.8957753317396567</v>
       </c>
       <c r="I4">
-        <v>1.004299918606642</v>
+        <v>1.035040993120568</v>
       </c>
       <c r="J4">
-        <v>0.9740498373656273</v>
+        <v>0.8957753317396567</v>
       </c>
       <c r="K4">
-        <v>1.010460907529823</v>
+        <v>1.009921186708914</v>
       </c>
       <c r="L4">
-        <v>1.004299918606642</v>
+        <v>1.035040993120568</v>
       </c>
       <c r="M4">
-        <v>0.9891748779861347</v>
+        <v>0.9654081624301123</v>
       </c>
       <c r="N4">
-        <v>0.9891748779861347</v>
+        <v>0.9654081624301123</v>
       </c>
       <c r="O4">
-        <v>0.9884865205835697</v>
+        <v>0.9558580535252797</v>
       </c>
       <c r="P4">
-        <v>0.9962702211673641</v>
+        <v>0.9802458371897128</v>
       </c>
       <c r="Q4">
-        <v>0.9962702211673641</v>
+        <v>0.9802458371897128</v>
       </c>
       <c r="R4">
-        <v>0.9998178927579788</v>
+        <v>0.987664674569513</v>
       </c>
       <c r="S4">
-        <v>0.9998178927579788</v>
+        <v>0.987664674569513</v>
       </c>
       <c r="T4">
-        <v>0.9987255241019395</v>
+        <v>1.000623356693068</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011642648721267</v>
+        <v>1.03624743735849</v>
       </c>
       <c r="D5">
-        <v>1.019399382369005</v>
+        <v>1.016715725983828</v>
       </c>
       <c r="E5">
-        <v>1.020495644598808</v>
+        <v>1.123889164528302</v>
       </c>
       <c r="F5">
-        <v>0.9753207719911369</v>
+        <v>0.9177102424528301</v>
       </c>
       <c r="G5">
-        <v>1.019399382369005</v>
+        <v>1.016715725983828</v>
       </c>
       <c r="H5">
-        <v>0.9506381040078187</v>
+        <v>0.8624073227223713</v>
       </c>
       <c r="I5">
-        <v>1.008450566558396</v>
+        <v>1.04428517679245</v>
       </c>
       <c r="J5">
-        <v>0.9506381040078187</v>
+        <v>0.8624073227223713</v>
       </c>
       <c r="K5">
-        <v>1.019399382369005</v>
+        <v>1.016715725983828</v>
       </c>
       <c r="L5">
-        <v>1.008450566558396</v>
+        <v>1.04428517679245</v>
       </c>
       <c r="M5">
-        <v>0.9795443352831071</v>
+        <v>0.9533462497574108</v>
       </c>
       <c r="N5">
-        <v>0.9795443352831071</v>
+        <v>0.9533462497574108</v>
       </c>
       <c r="O5">
-        <v>0.9781364808524504</v>
+        <v>0.941467580655884</v>
       </c>
       <c r="P5">
-        <v>0.9928293509784064</v>
+        <v>0.9744694084995498</v>
       </c>
       <c r="Q5">
-        <v>0.9928293509784064</v>
+        <v>0.9744694084995498</v>
       </c>
       <c r="R5">
-        <v>0.999471858826056</v>
+        <v>0.9850309878706192</v>
       </c>
       <c r="S5">
-        <v>0.999471858826056</v>
+        <v>0.9850309878706192</v>
       </c>
       <c r="T5">
-        <v>0.9976578530410718</v>
+        <v>1.000209178306379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.01706214035309</v>
+        <v>1.04143456375</v>
       </c>
       <c r="D6">
-        <v>1.028136239941977</v>
+        <v>1.020778500454545</v>
       </c>
       <c r="E6">
-        <v>1.030368488095845</v>
+        <v>1.139445305397728</v>
       </c>
       <c r="F6">
-        <v>0.9638148333672143</v>
+        <v>0.9061079682954535</v>
       </c>
       <c r="G6">
-        <v>1.028136239941977</v>
+        <v>1.020778500454545</v>
       </c>
       <c r="H6">
-        <v>0.9277496916867906</v>
+        <v>0.8421583629545456</v>
       </c>
       <c r="I6">
-        <v>1.012504882642339</v>
+        <v>1.04993501034091</v>
       </c>
       <c r="J6">
-        <v>0.9277496916867906</v>
+        <v>0.8421583629545456</v>
       </c>
       <c r="K6">
-        <v>1.028136239941977</v>
+        <v>1.020778500454545</v>
       </c>
       <c r="L6">
-        <v>1.012504882642339</v>
+        <v>1.04993501034091</v>
       </c>
       <c r="M6">
-        <v>0.9701272871645648</v>
+        <v>0.946046686647728</v>
       </c>
       <c r="N6">
-        <v>0.9701272871645648</v>
+        <v>0.946046686647728</v>
       </c>
       <c r="O6">
-        <v>0.9680231358987813</v>
+        <v>0.9327337805303032</v>
       </c>
       <c r="P6">
-        <v>0.9894636047570354</v>
+        <v>0.9709572912500004</v>
       </c>
       <c r="Q6">
-        <v>0.9894636047570353</v>
+        <v>0.9709572912500004</v>
       </c>
       <c r="R6">
-        <v>0.9991317635532707</v>
+        <v>0.9834125935511366</v>
       </c>
       <c r="S6">
-        <v>0.9991317635532707</v>
+        <v>0.9834125935511366</v>
       </c>
       <c r="T6">
-        <v>0.9966060460145426</v>
+        <v>0.9999766185321972</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000203765378573</v>
+        <v>1.078858108194153</v>
       </c>
       <c r="D7">
-        <v>1.000054366479302</v>
+        <v>1.161793581537571</v>
       </c>
       <c r="E7">
-        <v>1.000759366585184</v>
+        <v>1.100253541835143</v>
       </c>
       <c r="F7">
-        <v>0.9995301067669025</v>
+        <v>0.8356149370297791</v>
       </c>
       <c r="G7">
-        <v>1.000054366479302</v>
+        <v>1.161793581537571</v>
       </c>
       <c r="H7">
-        <v>0.9992448428977604</v>
+        <v>0.6570624117663414</v>
       </c>
       <c r="I7">
-        <v>1.000265244817223</v>
+        <v>1.044728281951867</v>
       </c>
       <c r="J7">
-        <v>0.9992448428977604</v>
+        <v>0.6570624117663414</v>
       </c>
       <c r="K7">
-        <v>1.000054366479302</v>
+        <v>1.161793581537571</v>
       </c>
       <c r="L7">
-        <v>1.000265244817223</v>
+        <v>1.044728281951867</v>
       </c>
       <c r="M7">
-        <v>0.9997550438574916</v>
+        <v>0.8508953468591043</v>
       </c>
       <c r="N7">
-        <v>0.9997550438574916</v>
+        <v>0.8508953468591043</v>
       </c>
       <c r="O7">
-        <v>0.9996800648272952</v>
+        <v>0.845801876915996</v>
       </c>
       <c r="P7">
-        <v>0.9998548180647616</v>
+        <v>0.9545280917519267</v>
       </c>
       <c r="Q7">
-        <v>0.9998548180647616</v>
+        <v>0.9545280917519267</v>
       </c>
       <c r="R7">
-        <v>0.9999047051683966</v>
+        <v>1.006344464198338</v>
       </c>
       <c r="S7">
-        <v>0.9999047051683966</v>
+        <v>1.006344464198338</v>
       </c>
       <c r="T7">
-        <v>1.000009615487491</v>
+        <v>0.9797184770524758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000547164225321</v>
+        <v>1.079222284865685</v>
       </c>
       <c r="D8">
-        <v>1.000259468704766</v>
+        <v>1.161524887667398</v>
       </c>
       <c r="E8">
-        <v>1.001889403859237</v>
+        <v>1.102171888495448</v>
       </c>
       <c r="F8">
-        <v>0.9987505276911623</v>
+        <v>0.8347138893889645</v>
       </c>
       <c r="G8">
-        <v>1.000259468704766</v>
+        <v>1.161524887667398</v>
       </c>
       <c r="H8">
-        <v>0.9979339241063843</v>
+        <v>0.6558671069398814</v>
       </c>
       <c r="I8">
-        <v>1.000665556130867</v>
+        <v>1.045352899433846</v>
       </c>
       <c r="J8">
-        <v>0.9979339241063843</v>
+        <v>0.6558671069398814</v>
       </c>
       <c r="K8">
-        <v>1.000259468704766</v>
+        <v>1.161524887667398</v>
       </c>
       <c r="L8">
-        <v>1.000665556130867</v>
+        <v>1.045352899433846</v>
       </c>
       <c r="M8">
-        <v>0.9992997401186254</v>
+        <v>0.8506100031868638</v>
       </c>
       <c r="N8">
-        <v>0.9992997401186254</v>
+        <v>0.8506100031868638</v>
       </c>
       <c r="O8">
-        <v>0.9991166693094712</v>
+        <v>0.845311298587564</v>
       </c>
       <c r="P8">
-        <v>0.999619649647339</v>
+        <v>0.9542482980137086</v>
       </c>
       <c r="Q8">
-        <v>0.999619649647339</v>
+        <v>0.9542482980137086</v>
       </c>
       <c r="R8">
-        <v>0.9997796044116958</v>
+        <v>1.006067445427131</v>
       </c>
       <c r="S8">
-        <v>0.9997796044116958</v>
+        <v>1.006067445427131</v>
       </c>
       <c r="T8">
-        <v>1.000007674119623</v>
+        <v>0.9798088261318704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000765857642032</v>
+        <v>1.079526855004326</v>
       </c>
       <c r="D9">
-        <v>1.000575244977881</v>
+        <v>1.160820305407277</v>
       </c>
       <c r="E9">
-        <v>1.002381768553074</v>
+        <v>1.10433640834913</v>
       </c>
       <c r="F9">
-        <v>0.9982697862523308</v>
+        <v>0.8339287003047385</v>
       </c>
       <c r="G9">
-        <v>1.000575244977881</v>
+        <v>1.160820305407277</v>
       </c>
       <c r="H9">
-        <v>0.9970406348484514</v>
+        <v>0.6549955204608326</v>
       </c>
       <c r="I9">
-        <v>1.000844297121204</v>
+        <v>1.046072758862165</v>
       </c>
       <c r="J9">
-        <v>0.9970406348484514</v>
+        <v>0.6549955204608326</v>
       </c>
       <c r="K9">
-        <v>1.000575244977881</v>
+        <v>1.160820305407277</v>
       </c>
       <c r="L9">
-        <v>1.000844297121204</v>
+        <v>1.046072758862165</v>
       </c>
       <c r="M9">
-        <v>0.9989424659848276</v>
+        <v>0.8505341396614988</v>
       </c>
       <c r="N9">
-        <v>0.9989424659848276</v>
+        <v>0.8505341396614988</v>
       </c>
       <c r="O9">
-        <v>0.9987182394073287</v>
+        <v>0.8449989932092454</v>
       </c>
       <c r="P9">
-        <v>0.9994867256491787</v>
+        <v>0.9539628615767581</v>
       </c>
       <c r="Q9">
-        <v>0.9994867256491787</v>
+        <v>0.9539628615767581</v>
       </c>
       <c r="R9">
-        <v>0.9997588554813543</v>
+        <v>1.005677222534388</v>
       </c>
       <c r="S9">
-        <v>0.9997588554813543</v>
+        <v>1.005677222534388</v>
       </c>
       <c r="T9">
-        <v>0.9999795982324956</v>
+        <v>0.9799467580647447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.001643348738755</v>
+        <v>1.080203248139275</v>
       </c>
       <c r="D10">
-        <v>1.000975598991749</v>
+        <v>1.161375476568567</v>
       </c>
       <c r="E10">
-        <v>1.005449498408287</v>
+        <v>1.106699150880767</v>
       </c>
       <c r="F10">
-        <v>0.9962599649622478</v>
+        <v>0.8323180989459419</v>
       </c>
       <c r="G10">
-        <v>1.000975598991749</v>
+        <v>1.161375476568567</v>
       </c>
       <c r="H10">
-        <v>0.9937362367468814</v>
+        <v>0.6524887266500367</v>
       </c>
       <c r="I10">
-        <v>1.00191814260516</v>
+        <v>1.046799038147416</v>
       </c>
       <c r="J10">
-        <v>0.9937362367468814</v>
+        <v>0.6524887266500367</v>
       </c>
       <c r="K10">
-        <v>1.000975598991749</v>
+        <v>1.161375476568567</v>
       </c>
       <c r="L10">
-        <v>1.00191814260516</v>
+        <v>1.046799038147416</v>
       </c>
       <c r="M10">
-        <v>0.9978271896760209</v>
+        <v>0.8496438823987262</v>
       </c>
       <c r="N10">
-        <v>0.9978271896760209</v>
+        <v>0.8496438823987262</v>
       </c>
       <c r="O10">
-        <v>0.9973047814380965</v>
+        <v>0.8438686212477982</v>
       </c>
       <c r="P10">
-        <v>0.9988766594479305</v>
+        <v>0.9535544137886731</v>
       </c>
       <c r="Q10">
-        <v>0.9988766594479305</v>
+        <v>0.9535544137886732</v>
       </c>
       <c r="R10">
-        <v>0.9994013943338851</v>
+        <v>1.005509679483647</v>
       </c>
       <c r="S10">
-        <v>0.9994013943338851</v>
+        <v>1.005509679483647</v>
       </c>
       <c r="T10">
-        <v>0.9999971317421803</v>
+        <v>0.9799806232220005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002752248169297</v>
+        <v>1.003688782107194</v>
       </c>
       <c r="D11">
-        <v>1.002231334860984</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="E11">
-        <v>1.008383490291586</v>
+        <v>1.00599773214193</v>
       </c>
       <c r="F11">
-        <v>0.9937878492534266</v>
+        <v>0.9922019755805626</v>
       </c>
       <c r="G11">
-        <v>1.002231334860984</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="H11">
-        <v>0.9893352998904349</v>
+        <v>0.9842573784909572</v>
       </c>
       <c r="I11">
-        <v>1.002966616226972</v>
+        <v>1.002492448588684</v>
       </c>
       <c r="J11">
-        <v>0.9893352998904349</v>
+        <v>0.9842573784909572</v>
       </c>
       <c r="K11">
-        <v>1.002231334860984</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="L11">
-        <v>1.002966616226972</v>
+        <v>1.002492448588684</v>
       </c>
       <c r="M11">
-        <v>0.9961509580587034</v>
+        <v>0.9933749135398205</v>
       </c>
       <c r="N11">
-        <v>0.9961509580587034</v>
+        <v>0.9933749135398205</v>
       </c>
       <c r="O11">
-        <v>0.995363255123611</v>
+        <v>0.9929839342200678</v>
       </c>
       <c r="P11">
-        <v>0.9981777503261302</v>
+        <v>0.9977818975185769</v>
       </c>
       <c r="Q11">
-        <v>0.9981777503261302</v>
+        <v>0.9977818975185769</v>
       </c>
       <c r="R11">
-        <v>0.9991911464598435</v>
+        <v>0.9999853895079551</v>
       </c>
       <c r="S11">
-        <v>0.9991911464598435</v>
+        <v>0.9999853895079551</v>
       </c>
       <c r="T11">
-        <v>0.9999094731154502</v>
+        <v>0.9992056970642361</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9717776769041253</v>
+        <v>1.0019372815525</v>
       </c>
       <c r="D12">
-        <v>0.9901030767426142</v>
+        <v>1.0033863304136</v>
       </c>
       <c r="E12">
-        <v>0.8867789051632528</v>
+        <v>1.003176899230333</v>
       </c>
       <c r="F12">
-        <v>1.068026997146558</v>
+        <v>0.9959172744915703</v>
       </c>
       <c r="G12">
-        <v>0.9901030767426142</v>
+        <v>1.0033863304136</v>
       </c>
       <c r="H12">
-        <v>1.099604240450639</v>
+        <v>0.9917247139071869</v>
       </c>
       <c r="I12">
-        <v>0.964236362747909</v>
+        <v>1.001340962872983</v>
       </c>
       <c r="J12">
-        <v>1.099604240450639</v>
+        <v>0.9917247139071869</v>
       </c>
       <c r="K12">
-        <v>0.9901030767426142</v>
+        <v>1.0033863304136</v>
       </c>
       <c r="L12">
-        <v>0.964236362747909</v>
+        <v>1.001340962872983</v>
       </c>
       <c r="M12">
-        <v>1.031920301599274</v>
+        <v>0.9965328383900849</v>
       </c>
       <c r="N12">
-        <v>1.031920301599274</v>
+        <v>0.9965328383900849</v>
       </c>
       <c r="O12">
-        <v>1.043955866781702</v>
+        <v>0.9963276504239134</v>
       </c>
       <c r="P12">
-        <v>1.017981226647054</v>
+        <v>0.9988173357312565</v>
       </c>
       <c r="Q12">
-        <v>1.017981226647054</v>
+        <v>0.9988173357312565</v>
       </c>
       <c r="R12">
-        <v>1.011011689170944</v>
+        <v>0.9999595844018423</v>
       </c>
       <c r="S12">
-        <v>1.011011689170944</v>
+        <v>0.9999595844018423</v>
       </c>
       <c r="T12">
-        <v>0.9967545431925164</v>
+        <v>0.9995805770780288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9900205063305437</v>
+        <v>1.006473509825982</v>
       </c>
       <c r="D13">
-        <v>0.9865851264171546</v>
+        <v>1.011577326006902</v>
       </c>
       <c r="E13">
-        <v>0.993867543274467</v>
+        <v>1.01014158717894</v>
       </c>
       <c r="F13">
-        <v>1.017027769342142</v>
+        <v>0.9864219121498895</v>
       </c>
       <c r="G13">
-        <v>0.9865851264171546</v>
+        <v>1.011577326006902</v>
       </c>
       <c r="H13">
-        <v>1.049169319746993</v>
+        <v>0.9722008248932964</v>
       </c>
       <c r="I13">
-        <v>0.9914342401947632</v>
+        <v>1.004373168320471</v>
       </c>
       <c r="J13">
-        <v>1.049169319746993</v>
+        <v>0.9722008248932964</v>
       </c>
       <c r="K13">
-        <v>0.9865851264171546</v>
+        <v>1.011577326006902</v>
       </c>
       <c r="L13">
-        <v>0.9914342401947632</v>
+        <v>1.004373168320471</v>
       </c>
       <c r="M13">
-        <v>1.020301779970878</v>
+        <v>0.9882869966068835</v>
       </c>
       <c r="N13">
-        <v>1.020301779970878</v>
+        <v>0.9882869966068835</v>
       </c>
       <c r="O13">
-        <v>1.019210443094633</v>
+        <v>0.9876653017878855</v>
       </c>
       <c r="P13">
-        <v>1.00906289545297</v>
+        <v>0.9960504397402229</v>
       </c>
       <c r="Q13">
-        <v>1.00906289545297</v>
+        <v>0.9960504397402229</v>
       </c>
       <c r="R13">
-        <v>1.003443453194016</v>
+        <v>0.9999321613068927</v>
       </c>
       <c r="S13">
-        <v>1.003443453194016</v>
+        <v>0.9999321613068927</v>
       </c>
       <c r="T13">
-        <v>1.004684084217677</v>
+        <v>0.99853138806258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9233386069230317</v>
+        <v>1.008784436734704</v>
       </c>
       <c r="D14">
-        <v>0.9274202683663757</v>
+        <v>1.014600606929752</v>
       </c>
       <c r="E14">
-        <v>0.8060634505657658</v>
+        <v>1.015520738972661</v>
       </c>
       <c r="F14">
-        <v>1.164549136715304</v>
+        <v>0.9813734328447757</v>
       </c>
       <c r="G14">
-        <v>0.9274202683663757</v>
+        <v>1.014600606929752</v>
       </c>
       <c r="H14">
-        <v>1.31346954971159</v>
+        <v>0.9627682482808947</v>
       </c>
       <c r="I14">
-        <v>0.9216589060513284</v>
+        <v>1.006390947711735</v>
       </c>
       <c r="J14">
-        <v>1.31346954971159</v>
+        <v>0.9627682482808947</v>
       </c>
       <c r="K14">
-        <v>0.9274202683663757</v>
+        <v>1.014600606929752</v>
       </c>
       <c r="L14">
-        <v>0.9216589060513284</v>
+        <v>1.006390947711735</v>
       </c>
       <c r="M14">
-        <v>1.117564227881459</v>
+        <v>0.9845795979963148</v>
       </c>
       <c r="N14">
-        <v>1.117564227881459</v>
+        <v>0.9845795979963148</v>
       </c>
       <c r="O14">
-        <v>1.133225864159408</v>
+        <v>0.983510876279135</v>
       </c>
       <c r="P14">
-        <v>1.054182908043098</v>
+        <v>0.9945866009741272</v>
       </c>
       <c r="Q14">
-        <v>1.054182908043098</v>
+        <v>0.9945866009741272</v>
       </c>
       <c r="R14">
-        <v>1.022492248123918</v>
+        <v>0.9995901024630334</v>
       </c>
       <c r="S14">
-        <v>1.022492248123918</v>
+        <v>0.9995901024630334</v>
       </c>
       <c r="T14">
-        <v>1.009416653055566</v>
+        <v>0.9982397352457536</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9815505541449745</v>
+        <v>1.003155745524571</v>
       </c>
       <c r="D15">
-        <v>0.9732590742496815</v>
+        <v>1.005365196407102</v>
       </c>
       <c r="E15">
-        <v>0.9427257328289709</v>
+        <v>1.005404237580966</v>
       </c>
       <c r="F15">
-        <v>1.045189528217952</v>
+        <v>0.9933252718687576</v>
       </c>
       <c r="G15">
-        <v>0.9732590742496815</v>
+        <v>1.005365196407102</v>
       </c>
       <c r="H15">
-        <v>1.066254135915258</v>
+        <v>0.986578116750596</v>
       </c>
       <c r="I15">
-        <v>0.9849626965304025</v>
+        <v>1.002246504412415</v>
       </c>
       <c r="J15">
-        <v>1.066254135915258</v>
+        <v>0.986578116750596</v>
       </c>
       <c r="K15">
-        <v>0.9732590742496815</v>
+        <v>1.005365196407102</v>
       </c>
       <c r="L15">
-        <v>0.9849626965304025</v>
+        <v>1.002246504412415</v>
       </c>
       <c r="M15">
-        <v>1.02560841622283</v>
+        <v>0.9944123105815057</v>
       </c>
       <c r="N15">
-        <v>1.02560841622283</v>
+        <v>0.9944123105815057</v>
       </c>
       <c r="O15">
-        <v>1.032135453554538</v>
+        <v>0.994049964343923</v>
       </c>
       <c r="P15">
-        <v>1.008158635565114</v>
+        <v>0.9980632725233711</v>
       </c>
       <c r="Q15">
-        <v>1.008158635565114</v>
+        <v>0.9980632725233711</v>
       </c>
       <c r="R15">
-        <v>0.9994337452362559</v>
+        <v>0.999888753494304</v>
       </c>
       <c r="S15">
-        <v>0.9994337452362559</v>
+        <v>0.999888753494304</v>
       </c>
       <c r="T15">
-        <v>0.9989902869812067</v>
+        <v>0.9993458454240681</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.061127101240299</v>
+        <v>1.006096129136502</v>
       </c>
       <c r="D16">
-        <v>1.098531299852601</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="E16">
-        <v>1.112180145555039</v>
+        <v>1.010336546194603</v>
       </c>
       <c r="F16">
-        <v>0.8700136782972958</v>
+        <v>0.9871098057784395</v>
       </c>
       <c r="G16">
-        <v>1.098531299852601</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="H16">
-        <v>0.7420374719164387</v>
+        <v>0.9740498373656273</v>
       </c>
       <c r="I16">
-        <v>1.045734401556775</v>
+        <v>1.004299918606642</v>
       </c>
       <c r="J16">
-        <v>0.7420374719164387</v>
+        <v>0.9740498373656273</v>
       </c>
       <c r="K16">
-        <v>1.098531299852601</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="L16">
-        <v>1.045734401556775</v>
+        <v>1.004299918606642</v>
       </c>
       <c r="M16">
-        <v>0.8938859367366068</v>
+        <v>0.9891748779861347</v>
       </c>
       <c r="N16">
-        <v>0.8938859367366068</v>
+        <v>0.9891748779861347</v>
       </c>
       <c r="O16">
-        <v>0.8859285172568364</v>
+        <v>0.9884865205835697</v>
       </c>
       <c r="P16">
-        <v>0.9621010577752714</v>
+        <v>0.9962702211673641</v>
       </c>
       <c r="Q16">
-        <v>0.9621010577752714</v>
+        <v>0.9962702211673641</v>
       </c>
       <c r="R16">
-        <v>0.9962086182946038</v>
+        <v>0.9998178927579788</v>
       </c>
       <c r="S16">
-        <v>0.9962086182946038</v>
+        <v>0.9998178927579788</v>
       </c>
       <c r="T16">
-        <v>0.9882706830697413</v>
+        <v>0.9987255241019395</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.049193407734775</v>
+        <v>1.011642648721267</v>
       </c>
       <c r="D17">
-        <v>1.068416989379172</v>
+        <v>1.019399382369005</v>
       </c>
       <c r="E17">
-        <v>1.105201278182004</v>
+        <v>1.020495644598808</v>
       </c>
       <c r="F17">
-        <v>0.8940430649410015</v>
+        <v>0.9753207719911369</v>
       </c>
       <c r="G17">
-        <v>1.068416989379172</v>
+        <v>1.019399382369005</v>
       </c>
       <c r="H17">
-        <v>0.7963896983374683</v>
+        <v>0.9506381040078187</v>
       </c>
       <c r="I17">
-        <v>1.041282452017314</v>
+        <v>1.008450566558396</v>
       </c>
       <c r="J17">
-        <v>0.7963896983374683</v>
+        <v>0.9506381040078187</v>
       </c>
       <c r="K17">
-        <v>1.068416989379172</v>
+        <v>1.019399382369005</v>
       </c>
       <c r="L17">
-        <v>1.041282452017314</v>
+        <v>1.008450566558396</v>
       </c>
       <c r="M17">
-        <v>0.9188360751773911</v>
+        <v>0.9795443352831071</v>
       </c>
       <c r="N17">
-        <v>0.9188360751773911</v>
+        <v>0.9795443352831071</v>
       </c>
       <c r="O17">
-        <v>0.910571738431928</v>
+        <v>0.9781364808524504</v>
       </c>
       <c r="P17">
-        <v>0.9686963799113181</v>
+        <v>0.9928293509784064</v>
       </c>
       <c r="Q17">
-        <v>0.9686963799113181</v>
+        <v>0.9928293509784064</v>
       </c>
       <c r="R17">
-        <v>0.9936265322782816</v>
+        <v>0.999471858826056</v>
       </c>
       <c r="S17">
-        <v>0.9936265322782816</v>
+        <v>0.999471858826056</v>
       </c>
       <c r="T17">
-        <v>0.9924211484319557</v>
+        <v>0.9976578530410718</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.025255900241188</v>
+        <v>1.01706214035309</v>
       </c>
       <c r="D18">
-        <v>1.008618904787232</v>
+        <v>1.028136239941977</v>
       </c>
       <c r="E18">
-        <v>1.090399607495475</v>
+        <v>1.030368488095845</v>
       </c>
       <c r="F18">
-        <v>0.9423096750502921</v>
+        <v>0.9638148333672143</v>
       </c>
       <c r="G18">
-        <v>1.008618904787232</v>
+        <v>1.028136239941977</v>
       </c>
       <c r="H18">
-        <v>0.9052054453991041</v>
+        <v>0.9277496916867906</v>
       </c>
       <c r="I18">
-        <v>1.032102402693771</v>
+        <v>1.012504882642339</v>
       </c>
       <c r="J18">
-        <v>0.9052054453991041</v>
+        <v>0.9277496916867906</v>
       </c>
       <c r="K18">
-        <v>1.008618904787232</v>
+        <v>1.028136239941977</v>
       </c>
       <c r="L18">
-        <v>1.032102402693771</v>
+        <v>1.012504882642339</v>
       </c>
       <c r="M18">
-        <v>0.9686539240464375</v>
+        <v>0.9701272871645648</v>
       </c>
       <c r="N18">
-        <v>0.9686539240464375</v>
+        <v>0.9701272871645648</v>
       </c>
       <c r="O18">
-        <v>0.959872507714389</v>
+        <v>0.9680231358987813</v>
       </c>
       <c r="P18">
-        <v>0.981975584293369</v>
+        <v>0.9894636047570354</v>
       </c>
       <c r="Q18">
-        <v>0.981975584293369</v>
+        <v>0.9894636047570353</v>
       </c>
       <c r="R18">
-        <v>0.9886364144168346</v>
+        <v>0.9991317635532707</v>
       </c>
       <c r="S18">
-        <v>0.9886364144168346</v>
+        <v>0.9991317635532707</v>
       </c>
       <c r="T18">
-        <v>1.00064865594451</v>
+        <v>0.9966060460145426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.027393895128293</v>
+        <v>1.000203765378573</v>
       </c>
       <c r="D19">
-        <v>1.003349789960204</v>
+        <v>1.000054366479302</v>
       </c>
       <c r="E19">
-        <v>1.106100348497818</v>
+        <v>1.000759366585184</v>
       </c>
       <c r="F19">
-        <v>0.9367301855147157</v>
+        <v>0.9995301067669025</v>
       </c>
       <c r="G19">
-        <v>1.003349789960204</v>
+        <v>1.000054366479302</v>
       </c>
       <c r="H19">
-        <v>0.8993311078379523</v>
+        <v>0.9992448428977604</v>
       </c>
       <c r="I19">
-        <v>1.03728859118828</v>
+        <v>1.000265244817223</v>
       </c>
       <c r="J19">
-        <v>0.8993311078379523</v>
+        <v>0.9992448428977604</v>
       </c>
       <c r="K19">
-        <v>1.003349789960204</v>
+        <v>1.000054366479302</v>
       </c>
       <c r="L19">
-        <v>1.03728859118828</v>
+        <v>1.000265244817223</v>
       </c>
       <c r="M19">
-        <v>0.9683098495131164</v>
+        <v>0.9997550438574916</v>
       </c>
       <c r="N19">
-        <v>0.9683098495131164</v>
+        <v>0.9997550438574916</v>
       </c>
       <c r="O19">
-        <v>0.9577832948469828</v>
+        <v>0.9996800648272952</v>
       </c>
       <c r="P19">
-        <v>0.9799898296621455</v>
+        <v>0.9998548180647616</v>
       </c>
       <c r="Q19">
-        <v>0.9799898296621454</v>
+        <v>0.9998548180647616</v>
       </c>
       <c r="R19">
-        <v>0.98582981973666</v>
+        <v>0.9999047051683966</v>
       </c>
       <c r="S19">
-        <v>0.98582981973666</v>
+        <v>0.9999047051683966</v>
       </c>
       <c r="T19">
-        <v>1.001698986354544</v>
+        <v>1.000009615487491</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999675710378897</v>
+        <v>1.000547164225321</v>
       </c>
       <c r="D20">
-        <v>0.9991331215880667</v>
+        <v>1.000259468704766</v>
       </c>
       <c r="E20">
-        <v>1.000911852486282</v>
+        <v>1.001889403859237</v>
       </c>
       <c r="F20">
-        <v>1.000008773383888</v>
+        <v>0.9987505276911623</v>
       </c>
       <c r="G20">
-        <v>0.9991331215880667</v>
+        <v>1.000259468704766</v>
       </c>
       <c r="H20">
-        <v>1.000371142783851</v>
+        <v>0.9979339241063843</v>
       </c>
       <c r="I20">
-        <v>1.000310964291359</v>
+        <v>1.000665556130867</v>
       </c>
       <c r="J20">
-        <v>1.000371142783851</v>
+        <v>0.9979339241063843</v>
       </c>
       <c r="K20">
-        <v>0.9991331215880667</v>
+        <v>1.000259468704766</v>
       </c>
       <c r="L20">
-        <v>1.000310964291359</v>
+        <v>1.000665556130867</v>
       </c>
       <c r="M20">
-        <v>1.000341053537605</v>
+        <v>0.9992997401186254</v>
       </c>
       <c r="N20">
-        <v>1.000341053537605</v>
+        <v>0.9992997401186254</v>
       </c>
       <c r="O20">
-        <v>1.000230293486366</v>
+        <v>0.9991166693094712</v>
       </c>
       <c r="P20">
-        <v>0.9999384095544257</v>
+        <v>0.999619649647339</v>
       </c>
       <c r="Q20">
-        <v>0.9999384095544256</v>
+        <v>0.999619649647339</v>
       </c>
       <c r="R20">
-        <v>0.9997370875628359</v>
+        <v>0.9997796044116958</v>
       </c>
       <c r="S20">
-        <v>0.9997370875628359</v>
+        <v>0.9997796044116958</v>
       </c>
       <c r="T20">
-        <v>1.000117237595223</v>
+        <v>1.000007674119623</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.0003074296281</v>
+        <v>1.000765857642032</v>
       </c>
       <c r="D21">
-        <v>1.001214540413198</v>
+        <v>1.000575244977881</v>
       </c>
       <c r="E21">
-        <v>0.9997623617459513</v>
+        <v>1.002381768553074</v>
       </c>
       <c r="F21">
-        <v>0.9993844522872851</v>
+        <v>0.9982697862523308</v>
       </c>
       <c r="G21">
-        <v>1.001214540413198</v>
+        <v>1.000575244977881</v>
       </c>
       <c r="H21">
-        <v>0.9985149973408974</v>
+        <v>0.9970406348484514</v>
       </c>
       <c r="I21">
-        <v>0.999934131721669</v>
+        <v>1.000844297121204</v>
       </c>
       <c r="J21">
-        <v>0.9985149973408974</v>
+        <v>0.9970406348484514</v>
       </c>
       <c r="K21">
-        <v>1.001214540413198</v>
+        <v>1.000575244977881</v>
       </c>
       <c r="L21">
-        <v>0.999934131721669</v>
+        <v>1.000844297121204</v>
       </c>
       <c r="M21">
-        <v>0.9992245645312832</v>
+        <v>0.9989424659848276</v>
       </c>
       <c r="N21">
-        <v>0.9992245645312832</v>
+        <v>0.9989424659848276</v>
       </c>
       <c r="O21">
-        <v>0.9992778604499505</v>
+        <v>0.9987182394073287</v>
       </c>
       <c r="P21">
-        <v>0.9998878898252549</v>
+        <v>0.9994867256491787</v>
       </c>
       <c r="Q21">
-        <v>0.9998878898252549</v>
+        <v>0.9994867256491787</v>
       </c>
       <c r="R21">
-        <v>1.000219552472241</v>
+        <v>0.9997588554813543</v>
       </c>
       <c r="S21">
-        <v>1.000219552472241</v>
+        <v>0.9997588554813543</v>
       </c>
       <c r="T21">
-        <v>0.9998529855228501</v>
+        <v>0.9999795982324956</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.0008617953749</v>
+        <v>1.001643348738755</v>
       </c>
       <c r="D22">
-        <v>0.9994224523830879</v>
+        <v>1.000975598991749</v>
       </c>
       <c r="E22">
-        <v>1.003872630583299</v>
+        <v>1.005449498408287</v>
       </c>
       <c r="F22">
-        <v>0.998036727928851</v>
+        <v>0.9962599649622478</v>
       </c>
       <c r="G22">
-        <v>0.9994224523830879</v>
+        <v>1.000975598991749</v>
       </c>
       <c r="H22">
-        <v>0.9969090791139724</v>
+        <v>0.9937362367468814</v>
       </c>
       <c r="I22">
-        <v>1.001454119261293</v>
+        <v>1.00191814260516</v>
       </c>
       <c r="J22">
-        <v>0.9969090791139724</v>
+        <v>0.9937362367468814</v>
       </c>
       <c r="K22">
-        <v>0.9994224523830879</v>
+        <v>1.000975598991749</v>
       </c>
       <c r="L22">
-        <v>1.001454119261293</v>
+        <v>1.00191814260516</v>
       </c>
       <c r="M22">
-        <v>0.9991815991876327</v>
+        <v>0.9978271896760209</v>
       </c>
       <c r="N22">
-        <v>0.9991815991876327</v>
+        <v>0.9978271896760209</v>
       </c>
       <c r="O22">
-        <v>0.9987999754347054</v>
+        <v>0.9973047814380965</v>
       </c>
       <c r="P22">
-        <v>0.9992618835861178</v>
+        <v>0.9988766594479305</v>
       </c>
       <c r="Q22">
-        <v>0.9992618835861178</v>
+        <v>0.9988766594479305</v>
       </c>
       <c r="R22">
-        <v>0.9993020257853603</v>
+        <v>0.9994013943338851</v>
       </c>
       <c r="S22">
-        <v>0.9993020257853603</v>
+        <v>0.9994013943338851</v>
       </c>
       <c r="T22">
-        <v>1.000092800774234</v>
+        <v>0.9999971317421803</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.002752248169297</v>
+      </c>
+      <c r="D23">
+        <v>1.002231334860984</v>
+      </c>
+      <c r="E23">
+        <v>1.008383490291586</v>
+      </c>
+      <c r="F23">
+        <v>0.9937878492534266</v>
+      </c>
+      <c r="G23">
+        <v>1.002231334860984</v>
+      </c>
+      <c r="H23">
+        <v>0.9893352998904349</v>
+      </c>
+      <c r="I23">
+        <v>1.002966616226972</v>
+      </c>
+      <c r="J23">
+        <v>0.9893352998904349</v>
+      </c>
+      <c r="K23">
+        <v>1.002231334860984</v>
+      </c>
+      <c r="L23">
+        <v>1.002966616226972</v>
+      </c>
+      <c r="M23">
+        <v>0.9961509580587034</v>
+      </c>
+      <c r="N23">
+        <v>0.9961509580587034</v>
+      </c>
+      <c r="O23">
+        <v>0.995363255123611</v>
+      </c>
+      <c r="P23">
+        <v>0.9981777503261302</v>
+      </c>
+      <c r="Q23">
+        <v>0.9981777503261302</v>
+      </c>
+      <c r="R23">
+        <v>0.9991911464598435</v>
+      </c>
+      <c r="S23">
+        <v>0.9991911464598435</v>
+      </c>
+      <c r="T23">
+        <v>0.9999094731154502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9717776769041253</v>
+      </c>
+      <c r="D24">
+        <v>0.9901030767426142</v>
+      </c>
+      <c r="E24">
+        <v>0.8867789051632528</v>
+      </c>
+      <c r="F24">
+        <v>1.068026997146558</v>
+      </c>
+      <c r="G24">
+        <v>0.9901030767426142</v>
+      </c>
+      <c r="H24">
+        <v>1.099604240450639</v>
+      </c>
+      <c r="I24">
+        <v>0.964236362747909</v>
+      </c>
+      <c r="J24">
+        <v>1.099604240450639</v>
+      </c>
+      <c r="K24">
+        <v>0.9901030767426142</v>
+      </c>
+      <c r="L24">
+        <v>0.964236362747909</v>
+      </c>
+      <c r="M24">
+        <v>1.031920301599274</v>
+      </c>
+      <c r="N24">
+        <v>1.031920301599274</v>
+      </c>
+      <c r="O24">
+        <v>1.043955866781702</v>
+      </c>
+      <c r="P24">
+        <v>1.017981226647054</v>
+      </c>
+      <c r="Q24">
+        <v>1.017981226647054</v>
+      </c>
+      <c r="R24">
+        <v>1.011011689170944</v>
+      </c>
+      <c r="S24">
+        <v>1.011011689170944</v>
+      </c>
+      <c r="T24">
+        <v>0.9967545431925164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9900205063305437</v>
+      </c>
+      <c r="D25">
+        <v>0.9865851264171546</v>
+      </c>
+      <c r="E25">
+        <v>0.993867543274467</v>
+      </c>
+      <c r="F25">
+        <v>1.017027769342142</v>
+      </c>
+      <c r="G25">
+        <v>0.9865851264171546</v>
+      </c>
+      <c r="H25">
+        <v>1.049169319746993</v>
+      </c>
+      <c r="I25">
+        <v>0.9914342401947632</v>
+      </c>
+      <c r="J25">
+        <v>1.049169319746993</v>
+      </c>
+      <c r="K25">
+        <v>0.9865851264171546</v>
+      </c>
+      <c r="L25">
+        <v>0.9914342401947632</v>
+      </c>
+      <c r="M25">
+        <v>1.020301779970878</v>
+      </c>
+      <c r="N25">
+        <v>1.020301779970878</v>
+      </c>
+      <c r="O25">
+        <v>1.019210443094633</v>
+      </c>
+      <c r="P25">
+        <v>1.00906289545297</v>
+      </c>
+      <c r="Q25">
+        <v>1.00906289545297</v>
+      </c>
+      <c r="R25">
+        <v>1.003443453194016</v>
+      </c>
+      <c r="S25">
+        <v>1.003443453194016</v>
+      </c>
+      <c r="T25">
+        <v>1.004684084217677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9233386069230317</v>
+      </c>
+      <c r="D26">
+        <v>0.9274202683663757</v>
+      </c>
+      <c r="E26">
+        <v>0.8060634505657658</v>
+      </c>
+      <c r="F26">
+        <v>1.164549136715304</v>
+      </c>
+      <c r="G26">
+        <v>0.9274202683663757</v>
+      </c>
+      <c r="H26">
+        <v>1.31346954971159</v>
+      </c>
+      <c r="I26">
+        <v>0.9216589060513284</v>
+      </c>
+      <c r="J26">
+        <v>1.31346954971159</v>
+      </c>
+      <c r="K26">
+        <v>0.9274202683663757</v>
+      </c>
+      <c r="L26">
+        <v>0.9216589060513284</v>
+      </c>
+      <c r="M26">
+        <v>1.117564227881459</v>
+      </c>
+      <c r="N26">
+        <v>1.117564227881459</v>
+      </c>
+      <c r="O26">
+        <v>1.133225864159408</v>
+      </c>
+      <c r="P26">
+        <v>1.054182908043098</v>
+      </c>
+      <c r="Q26">
+        <v>1.054182908043098</v>
+      </c>
+      <c r="R26">
+        <v>1.022492248123918</v>
+      </c>
+      <c r="S26">
+        <v>1.022492248123918</v>
+      </c>
+      <c r="T26">
+        <v>1.009416653055566</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9815505541449745</v>
+      </c>
+      <c r="D27">
+        <v>0.9732590742496815</v>
+      </c>
+      <c r="E27">
+        <v>0.9427257328289709</v>
+      </c>
+      <c r="F27">
+        <v>1.045189528217952</v>
+      </c>
+      <c r="G27">
+        <v>0.9732590742496815</v>
+      </c>
+      <c r="H27">
+        <v>1.066254135915258</v>
+      </c>
+      <c r="I27">
+        <v>0.9849626965304025</v>
+      </c>
+      <c r="J27">
+        <v>1.066254135915258</v>
+      </c>
+      <c r="K27">
+        <v>0.9732590742496815</v>
+      </c>
+      <c r="L27">
+        <v>0.9849626965304025</v>
+      </c>
+      <c r="M27">
+        <v>1.02560841622283</v>
+      </c>
+      <c r="N27">
+        <v>1.02560841622283</v>
+      </c>
+      <c r="O27">
+        <v>1.032135453554538</v>
+      </c>
+      <c r="P27">
+        <v>1.008158635565114</v>
+      </c>
+      <c r="Q27">
+        <v>1.008158635565114</v>
+      </c>
+      <c r="R27">
+        <v>0.9994337452362559</v>
+      </c>
+      <c r="S27">
+        <v>0.9994337452362559</v>
+      </c>
+      <c r="T27">
+        <v>0.9989902869812067</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.061127101240299</v>
+      </c>
+      <c r="D28">
+        <v>1.098531299852601</v>
+      </c>
+      <c r="E28">
+        <v>1.112180145555039</v>
+      </c>
+      <c r="F28">
+        <v>0.8700136782972958</v>
+      </c>
+      <c r="G28">
+        <v>1.098531299852601</v>
+      </c>
+      <c r="H28">
+        <v>0.7420374719164387</v>
+      </c>
+      <c r="I28">
+        <v>1.045734401556775</v>
+      </c>
+      <c r="J28">
+        <v>0.7420374719164387</v>
+      </c>
+      <c r="K28">
+        <v>1.098531299852601</v>
+      </c>
+      <c r="L28">
+        <v>1.045734401556775</v>
+      </c>
+      <c r="M28">
+        <v>0.8938859367366068</v>
+      </c>
+      <c r="N28">
+        <v>0.8938859367366068</v>
+      </c>
+      <c r="O28">
+        <v>0.8859285172568364</v>
+      </c>
+      <c r="P28">
+        <v>0.9621010577752714</v>
+      </c>
+      <c r="Q28">
+        <v>0.9621010577752714</v>
+      </c>
+      <c r="R28">
+        <v>0.9962086182946038</v>
+      </c>
+      <c r="S28">
+        <v>0.9962086182946038</v>
+      </c>
+      <c r="T28">
+        <v>0.9882706830697413</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.049193407734775</v>
+      </c>
+      <c r="D29">
+        <v>1.068416989379172</v>
+      </c>
+      <c r="E29">
+        <v>1.105201278182004</v>
+      </c>
+      <c r="F29">
+        <v>0.8940430649410015</v>
+      </c>
+      <c r="G29">
+        <v>1.068416989379172</v>
+      </c>
+      <c r="H29">
+        <v>0.7963896983374683</v>
+      </c>
+      <c r="I29">
+        <v>1.041282452017314</v>
+      </c>
+      <c r="J29">
+        <v>0.7963896983374683</v>
+      </c>
+      <c r="K29">
+        <v>1.068416989379172</v>
+      </c>
+      <c r="L29">
+        <v>1.041282452017314</v>
+      </c>
+      <c r="M29">
+        <v>0.9188360751773911</v>
+      </c>
+      <c r="N29">
+        <v>0.9188360751773911</v>
+      </c>
+      <c r="O29">
+        <v>0.910571738431928</v>
+      </c>
+      <c r="P29">
+        <v>0.9686963799113181</v>
+      </c>
+      <c r="Q29">
+        <v>0.9686963799113181</v>
+      </c>
+      <c r="R29">
+        <v>0.9936265322782816</v>
+      </c>
+      <c r="S29">
+        <v>0.9936265322782816</v>
+      </c>
+      <c r="T29">
+        <v>0.9924211484319557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.025255900241188</v>
+      </c>
+      <c r="D30">
+        <v>1.008618904787232</v>
+      </c>
+      <c r="E30">
+        <v>1.090399607495475</v>
+      </c>
+      <c r="F30">
+        <v>0.9423096750502921</v>
+      </c>
+      <c r="G30">
+        <v>1.008618904787232</v>
+      </c>
+      <c r="H30">
+        <v>0.9052054453991041</v>
+      </c>
+      <c r="I30">
+        <v>1.032102402693771</v>
+      </c>
+      <c r="J30">
+        <v>0.9052054453991041</v>
+      </c>
+      <c r="K30">
+        <v>1.008618904787232</v>
+      </c>
+      <c r="L30">
+        <v>1.032102402693771</v>
+      </c>
+      <c r="M30">
+        <v>0.9686539240464375</v>
+      </c>
+      <c r="N30">
+        <v>0.9686539240464375</v>
+      </c>
+      <c r="O30">
+        <v>0.959872507714389</v>
+      </c>
+      <c r="P30">
+        <v>0.981975584293369</v>
+      </c>
+      <c r="Q30">
+        <v>0.981975584293369</v>
+      </c>
+      <c r="R30">
+        <v>0.9886364144168346</v>
+      </c>
+      <c r="S30">
+        <v>0.9886364144168346</v>
+      </c>
+      <c r="T30">
+        <v>1.00064865594451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.027393895128293</v>
+      </c>
+      <c r="D31">
+        <v>1.003349789960204</v>
+      </c>
+      <c r="E31">
+        <v>1.106100348497818</v>
+      </c>
+      <c r="F31">
+        <v>0.9367301855147157</v>
+      </c>
+      <c r="G31">
+        <v>1.003349789960204</v>
+      </c>
+      <c r="H31">
+        <v>0.8993311078379523</v>
+      </c>
+      <c r="I31">
+        <v>1.03728859118828</v>
+      </c>
+      <c r="J31">
+        <v>0.8993311078379523</v>
+      </c>
+      <c r="K31">
+        <v>1.003349789960204</v>
+      </c>
+      <c r="L31">
+        <v>1.03728859118828</v>
+      </c>
+      <c r="M31">
+        <v>0.9683098495131164</v>
+      </c>
+      <c r="N31">
+        <v>0.9683098495131164</v>
+      </c>
+      <c r="O31">
+        <v>0.9577832948469828</v>
+      </c>
+      <c r="P31">
+        <v>0.9799898296621455</v>
+      </c>
+      <c r="Q31">
+        <v>0.9799898296621454</v>
+      </c>
+      <c r="R31">
+        <v>0.98582981973666</v>
+      </c>
+      <c r="S31">
+        <v>0.98582981973666</v>
+      </c>
+      <c r="T31">
+        <v>1.001698986354544</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.073538549041096</v>
+      </c>
+      <c r="D32">
+        <v>1.131962023287671</v>
+      </c>
+      <c r="E32">
+        <v>1.117321599452055</v>
+      </c>
+      <c r="F32">
+        <v>0.8450648163013699</v>
+      </c>
+      <c r="G32">
+        <v>1.131962023287671</v>
+      </c>
+      <c r="H32">
+        <v>0.6850971047945206</v>
+      </c>
+      <c r="I32">
+        <v>1.049495933835616</v>
+      </c>
+      <c r="J32">
+        <v>0.6850971047945206</v>
+      </c>
+      <c r="K32">
+        <v>1.131962023287671</v>
+      </c>
+      <c r="L32">
+        <v>1.049495933835616</v>
+      </c>
+      <c r="M32">
+        <v>0.8672965193150686</v>
+      </c>
+      <c r="N32">
+        <v>0.8672965193150686</v>
+      </c>
+      <c r="O32">
+        <v>0.8598859516438356</v>
+      </c>
+      <c r="P32">
+        <v>0.9555183539726025</v>
+      </c>
+      <c r="Q32">
+        <v>0.9555183539726025</v>
+      </c>
+      <c r="R32">
+        <v>0.9996292713013697</v>
+      </c>
+      <c r="S32">
+        <v>0.9996292713013697</v>
+      </c>
+      <c r="T32">
+        <v>0.9837466711187215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.034633363157895</v>
+      </c>
+      <c r="D33">
+        <v>0.9591053063157894</v>
+      </c>
+      <c r="E33">
+        <v>1.210429528421053</v>
+      </c>
+      <c r="F33">
+        <v>0.9102952789473686</v>
+      </c>
+      <c r="G33">
+        <v>0.9591053063157894</v>
+      </c>
+      <c r="H33">
+        <v>0.8967398173684209</v>
+      </c>
+      <c r="I33">
+        <v>1.065714882631579</v>
+      </c>
+      <c r="J33">
+        <v>0.8967398173684209</v>
+      </c>
+      <c r="K33">
+        <v>0.9591053063157894</v>
+      </c>
+      <c r="L33">
+        <v>1.065714882631579</v>
+      </c>
+      <c r="M33">
+        <v>0.9812273499999999</v>
+      </c>
+      <c r="N33">
+        <v>0.9812273499999999</v>
+      </c>
+      <c r="O33">
+        <v>0.9575833263157895</v>
+      </c>
+      <c r="P33">
+        <v>0.9738533354385964</v>
+      </c>
+      <c r="Q33">
+        <v>0.9738533354385964</v>
+      </c>
+      <c r="R33">
+        <v>0.9701663281578946</v>
+      </c>
+      <c r="S33">
+        <v>0.9701663281578946</v>
+      </c>
+      <c r="T33">
+        <v>1.012819696140351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.086391</v>
+      </c>
+      <c r="D34">
+        <v>1.15470045368421</v>
+      </c>
+      <c r="E34">
+        <v>1.141658918947368</v>
+      </c>
+      <c r="F34">
+        <v>0.8168903068421052</v>
+      </c>
+      <c r="G34">
+        <v>1.15470045368421</v>
+      </c>
+      <c r="H34">
+        <v>0.6327596221052632</v>
+      </c>
+      <c r="I34">
+        <v>1.05828011631579</v>
+      </c>
+      <c r="J34">
+        <v>0.6327596221052632</v>
+      </c>
+      <c r="K34">
+        <v>1.15470045368421</v>
+      </c>
+      <c r="L34">
+        <v>1.05828011631579</v>
+      </c>
+      <c r="M34">
+        <v>0.8455198692105265</v>
+      </c>
+      <c r="N34">
+        <v>0.8455198692105265</v>
+      </c>
+      <c r="O34">
+        <v>0.835976681754386</v>
+      </c>
+      <c r="P34">
+        <v>0.9485800640350878</v>
+      </c>
+      <c r="Q34">
+        <v>0.9485800640350878</v>
+      </c>
+      <c r="R34">
+        <v>1.000110161447368</v>
+      </c>
+      <c r="S34">
+        <v>1.000110161447368</v>
+      </c>
+      <c r="T34">
+        <v>0.9817800696491229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.097949736551977</v>
+      </c>
+      <c r="D35">
+        <v>1.001393470037678</v>
+      </c>
+      <c r="E35">
+        <v>1.39490045736248</v>
+      </c>
+      <c r="F35">
+        <v>0.7722144573646946</v>
+      </c>
+      <c r="G35">
+        <v>1.001393470037678</v>
+      </c>
+      <c r="H35">
+        <v>0.6440390480130054</v>
+      </c>
+      <c r="I35">
+        <v>1.137684849874647</v>
+      </c>
+      <c r="J35">
+        <v>0.6440390480130054</v>
+      </c>
+      <c r="K35">
+        <v>1.001393470037678</v>
+      </c>
+      <c r="L35">
+        <v>1.137684849874647</v>
+      </c>
+      <c r="M35">
+        <v>0.8908619489438263</v>
+      </c>
+      <c r="N35">
+        <v>0.8908619489438263</v>
+      </c>
+      <c r="O35">
+        <v>0.8513127850841157</v>
+      </c>
+      <c r="P35">
+        <v>0.9277057893084435</v>
+      </c>
+      <c r="Q35">
+        <v>0.9277057893084435</v>
+      </c>
+      <c r="R35">
+        <v>0.9461277094907521</v>
+      </c>
+      <c r="S35">
+        <v>0.9461277094907521</v>
+      </c>
+      <c r="T35">
+        <v>1.00803033653408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999675710378897</v>
+      </c>
+      <c r="D36">
+        <v>0.9991331215880667</v>
+      </c>
+      <c r="E36">
+        <v>1.000911852486282</v>
+      </c>
+      <c r="F36">
+        <v>1.000008773383888</v>
+      </c>
+      <c r="G36">
+        <v>0.9991331215880667</v>
+      </c>
+      <c r="H36">
+        <v>1.000371142783851</v>
+      </c>
+      <c r="I36">
+        <v>1.000310964291359</v>
+      </c>
+      <c r="J36">
+        <v>1.000371142783851</v>
+      </c>
+      <c r="K36">
+        <v>0.9991331215880667</v>
+      </c>
+      <c r="L36">
+        <v>1.000310964291359</v>
+      </c>
+      <c r="M36">
+        <v>1.000341053537605</v>
+      </c>
+      <c r="N36">
+        <v>1.000341053537605</v>
+      </c>
+      <c r="O36">
+        <v>1.000230293486366</v>
+      </c>
+      <c r="P36">
+        <v>0.9999384095544257</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999384095544256</v>
+      </c>
+      <c r="R36">
+        <v>0.9997370875628359</v>
+      </c>
+      <c r="S36">
+        <v>0.9997370875628359</v>
+      </c>
+      <c r="T36">
+        <v>1.000117237595223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.0003074296281</v>
+      </c>
+      <c r="D37">
+        <v>1.001214540413198</v>
+      </c>
+      <c r="E37">
+        <v>0.9997623617459513</v>
+      </c>
+      <c r="F37">
+        <v>0.9993844522872851</v>
+      </c>
+      <c r="G37">
+        <v>1.001214540413198</v>
+      </c>
+      <c r="H37">
+        <v>0.9985149973408974</v>
+      </c>
+      <c r="I37">
+        <v>0.999934131721669</v>
+      </c>
+      <c r="J37">
+        <v>0.9985149973408974</v>
+      </c>
+      <c r="K37">
+        <v>1.001214540413198</v>
+      </c>
+      <c r="L37">
+        <v>0.999934131721669</v>
+      </c>
+      <c r="M37">
+        <v>0.9992245645312832</v>
+      </c>
+      <c r="N37">
+        <v>0.9992245645312832</v>
+      </c>
+      <c r="O37">
+        <v>0.9992778604499505</v>
+      </c>
+      <c r="P37">
+        <v>0.9998878898252549</v>
+      </c>
+      <c r="Q37">
+        <v>0.9998878898252549</v>
+      </c>
+      <c r="R37">
+        <v>1.000219552472241</v>
+      </c>
+      <c r="S37">
+        <v>1.000219552472241</v>
+      </c>
+      <c r="T37">
+        <v>0.9998529855228501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.0008617953749</v>
+      </c>
+      <c r="D38">
+        <v>0.9994224523830879</v>
+      </c>
+      <c r="E38">
+        <v>1.003872630583299</v>
+      </c>
+      <c r="F38">
+        <v>0.998036727928851</v>
+      </c>
+      <c r="G38">
+        <v>0.9994224523830879</v>
+      </c>
+      <c r="H38">
+        <v>0.9969090791139724</v>
+      </c>
+      <c r="I38">
+        <v>1.001454119261293</v>
+      </c>
+      <c r="J38">
+        <v>0.9969090791139724</v>
+      </c>
+      <c r="K38">
+        <v>0.9994224523830879</v>
+      </c>
+      <c r="L38">
+        <v>1.001454119261293</v>
+      </c>
+      <c r="M38">
+        <v>0.9991815991876327</v>
+      </c>
+      <c r="N38">
+        <v>0.9991815991876327</v>
+      </c>
+      <c r="O38">
+        <v>0.9987999754347054</v>
+      </c>
+      <c r="P38">
+        <v>0.9992618835861178</v>
+      </c>
+      <c r="Q38">
+        <v>0.9992618835861178</v>
+      </c>
+      <c r="R38">
+        <v>0.9993020257853603</v>
+      </c>
+      <c r="S38">
+        <v>0.9993020257853603</v>
+      </c>
+      <c r="T38">
+        <v>1.000092800774234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.001922684733165</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9959658868719966</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.011527121447685</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9955245923848166</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9959658868719966</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9937255319926425</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.004374040860381</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9937255319926425</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9959658868719966</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.004374040860381</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9990497864265118</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9990497864265118</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9978747217459466</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.99802181990834</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9980218199083399</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9975078366492541</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9975078366492541</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000506643048448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.02699251179869</v>
+      </c>
+      <c r="D40">
+        <v>1.006658662493471</v>
+      </c>
+      <c r="E40">
+        <v>1.101343569781769</v>
+      </c>
+      <c r="F40">
+        <v>0.9376935632814141</v>
+      </c>
+      <c r="G40">
+        <v>1.006658662493471</v>
+      </c>
+      <c r="H40">
+        <v>0.900080038043426</v>
+      </c>
+      <c r="I40">
+        <v>1.035360347767769</v>
+      </c>
+      <c r="J40">
+        <v>0.900080038043426</v>
+      </c>
+      <c r="K40">
+        <v>1.006658662493471</v>
+      </c>
+      <c r="L40">
+        <v>1.035360347767769</v>
+      </c>
+      <c r="M40">
+        <v>0.9677201929055975</v>
+      </c>
+      <c r="N40">
+        <v>0.9677201929055975</v>
+      </c>
+      <c r="O40">
+        <v>0.957711316364203</v>
+      </c>
+      <c r="P40">
+        <v>0.9806996827682219</v>
+      </c>
+      <c r="Q40">
+        <v>0.9806996827682219</v>
+      </c>
+      <c r="R40">
+        <v>0.9871894276995341</v>
+      </c>
+      <c r="S40">
+        <v>0.9871894276995341</v>
+      </c>
+      <c r="T40">
+        <v>1.001354782194423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9983015301276268</v>
+      </c>
+      <c r="D41">
+        <v>1.00188595538929</v>
+      </c>
+      <c r="E41">
+        <v>0.9898480473467427</v>
+      </c>
+      <c r="F41">
+        <v>1.004383342797279</v>
+      </c>
+      <c r="G41">
+        <v>1.00188595538929</v>
+      </c>
+      <c r="H41">
+        <v>1.005109956059629</v>
+      </c>
+      <c r="I41">
+        <v>0.9968264559987378</v>
+      </c>
+      <c r="J41">
+        <v>1.005109956059629</v>
+      </c>
+      <c r="K41">
+        <v>1.00188595538929</v>
+      </c>
+      <c r="L41">
+        <v>0.9968264559987378</v>
+      </c>
+      <c r="M41">
+        <v>1.000968206029184</v>
+      </c>
+      <c r="N41">
+        <v>1.000968206029184</v>
+      </c>
+      <c r="O41">
+        <v>1.002106584951882</v>
+      </c>
+      <c r="P41">
+        <v>1.001274122482553</v>
+      </c>
+      <c r="Q41">
+        <v>1.001274122482553</v>
+      </c>
+      <c r="R41">
+        <v>1.001427080709237</v>
+      </c>
+      <c r="S41">
+        <v>1.001427080709237</v>
+      </c>
+      <c r="T41">
+        <v>0.9993925479532177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.048456351282382</v>
+      </c>
+      <c r="D42">
+        <v>1.04445090409928</v>
+      </c>
+      <c r="E42">
+        <v>1.140715509023893</v>
+      </c>
+      <c r="F42">
+        <v>0.8912122863477473</v>
+      </c>
+      <c r="G42">
+        <v>1.04445090409928</v>
+      </c>
+      <c r="H42">
+        <v>0.8104283485593504</v>
+      </c>
+      <c r="I42">
+        <v>1.050104680303962</v>
+      </c>
+      <c r="J42">
+        <v>0.8104283485593504</v>
+      </c>
+      <c r="K42">
+        <v>1.04445090409928</v>
+      </c>
+      <c r="L42">
+        <v>1.050104680303962</v>
+      </c>
+      <c r="M42">
+        <v>0.9302665144316561</v>
+      </c>
+      <c r="N42">
+        <v>0.9302665144316561</v>
+      </c>
+      <c r="O42">
+        <v>0.9172484384036865</v>
+      </c>
+      <c r="P42">
+        <v>0.9683279776541974</v>
+      </c>
+      <c r="Q42">
+        <v>0.9683279776541974</v>
+      </c>
+      <c r="R42">
+        <v>0.987358709265468</v>
+      </c>
+      <c r="S42">
+        <v>0.987358709265468</v>
+      </c>
+      <c r="T42">
+        <v>0.997561346602769</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005365196407102</v>
+        <v>1.000547164225321</v>
       </c>
       <c r="D3">
-        <v>0.986578116750596</v>
+        <v>1.000259468704766</v>
       </c>
       <c r="E3">
-        <v>1.002246504412415</v>
+        <v>1.001889403859237</v>
       </c>
       <c r="F3">
-        <v>1.005365196407102</v>
+        <v>0.9987505276911623</v>
       </c>
       <c r="G3">
-        <v>1.005404237580966</v>
+        <v>1.000259468704766</v>
       </c>
       <c r="H3">
-        <v>0.9933252718687576</v>
+        <v>0.9979339241063843</v>
       </c>
       <c r="I3">
-        <v>1.003155745524571</v>
+        <v>1.000665556130867</v>
       </c>
       <c r="J3">
-        <v>0.986578116750596</v>
+        <v>0.9979339241063843</v>
       </c>
       <c r="K3">
-        <v>1.005365196407102</v>
+        <v>1.000259468704766</v>
       </c>
       <c r="L3">
-        <v>1.002246504412415</v>
+        <v>1.000665556130867</v>
       </c>
       <c r="M3">
-        <v>0.9944123105815057</v>
+        <v>0.9992997401186254</v>
       </c>
       <c r="N3">
-        <v>0.9944123105815057</v>
+        <v>0.9992997401186254</v>
       </c>
       <c r="O3">
-        <v>0.994049964343923</v>
+        <v>0.9991166693094712</v>
       </c>
       <c r="P3">
-        <v>0.9980632725233711</v>
+        <v>0.999619649647339</v>
       </c>
       <c r="Q3">
-        <v>0.9980632725233711</v>
+        <v>0.999619649647339</v>
       </c>
       <c r="R3">
-        <v>0.999888753494304</v>
+        <v>0.9997796044116958</v>
       </c>
       <c r="S3">
-        <v>0.999888753494304</v>
+        <v>0.9997796044116958</v>
       </c>
       <c r="T3">
-        <v>0.9993458454240681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000007674119623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.010460907529823</v>
+        <v>1.02699251179869</v>
       </c>
       <c r="D4">
-        <v>0.9740498373656273</v>
+        <v>1.006658662493471</v>
       </c>
       <c r="E4">
-        <v>1.004299918606642</v>
+        <v>1.101343569781769</v>
       </c>
       <c r="F4">
-        <v>1.010460907529823</v>
+        <v>0.9376935632814141</v>
       </c>
       <c r="G4">
-        <v>1.010336546194603</v>
+        <v>1.006658662493471</v>
       </c>
       <c r="H4">
-        <v>0.9871098057784395</v>
+        <v>0.900080038043426</v>
       </c>
       <c r="I4">
-        <v>1.006096129136502</v>
+        <v>1.035360347767769</v>
       </c>
       <c r="J4">
-        <v>0.9740498373656273</v>
+        <v>0.900080038043426</v>
       </c>
       <c r="K4">
-        <v>1.010460907529823</v>
+        <v>1.006658662493471</v>
       </c>
       <c r="L4">
-        <v>1.004299918606642</v>
+        <v>1.035360347767769</v>
       </c>
       <c r="M4">
-        <v>0.9891748779861347</v>
+        <v>0.9677201929055975</v>
       </c>
       <c r="N4">
-        <v>0.9891748779861347</v>
+        <v>0.9677201929055975</v>
       </c>
       <c r="O4">
-        <v>0.9884865205835697</v>
+        <v>0.957711316364203</v>
       </c>
       <c r="P4">
-        <v>0.9962702211673641</v>
+        <v>0.9806996827682219</v>
       </c>
       <c r="Q4">
-        <v>0.9962702211673641</v>
+        <v>0.9806996827682219</v>
       </c>
       <c r="R4">
-        <v>0.9998178927579788</v>
+        <v>0.9871894276995341</v>
       </c>
       <c r="S4">
-        <v>0.9998178927579788</v>
+        <v>0.9871894276995341</v>
       </c>
       <c r="T4">
-        <v>0.9987255241019395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>1.001354782194423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.019399382369005</v>
+        <v>1.030666590389046</v>
       </c>
       <c r="D5">
-        <v>0.9506381040078187</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="E5">
-        <v>1.008450566558396</v>
+        <v>1.107265454524491</v>
       </c>
       <c r="F5">
-        <v>1.019399382369005</v>
+        <v>0.9301767551296822</v>
       </c>
       <c r="G5">
-        <v>1.020495644598808</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="H5">
-        <v>0.9753207719911369</v>
+        <v>0.8842290567146981</v>
       </c>
       <c r="I5">
-        <v>1.011642648721267</v>
+        <v>1.038230588278098</v>
       </c>
       <c r="J5">
-        <v>0.9506381040078187</v>
+        <v>0.8842290567146981</v>
       </c>
       <c r="K5">
-        <v>1.019399382369005</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="L5">
-        <v>1.008450566558396</v>
+        <v>1.038230588278098</v>
       </c>
       <c r="M5">
-        <v>0.9795443352831071</v>
+        <v>0.9612298224963978</v>
       </c>
       <c r="N5">
-        <v>0.9795443352831071</v>
+        <v>0.9612298224963978</v>
       </c>
       <c r="O5">
-        <v>0.9781364808524504</v>
+        <v>0.9508788000408259</v>
       </c>
       <c r="P5">
-        <v>0.9928293509784064</v>
+        <v>0.9782485741426511</v>
       </c>
       <c r="Q5">
-        <v>0.9928293509784064</v>
+        <v>0.9782485741426511</v>
       </c>
       <c r="R5">
-        <v>0.999471858826056</v>
+        <v>0.9867579499657778</v>
       </c>
       <c r="S5">
-        <v>0.999471858826056</v>
+        <v>0.9867579499657778</v>
       </c>
       <c r="T5">
-        <v>0.9976578530410718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.000475753745195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.028136239941977</v>
+        <v>1.097949736551977</v>
       </c>
       <c r="D6">
-        <v>0.9277496916867906</v>
+        <v>1.001393470037678</v>
       </c>
       <c r="E6">
-        <v>1.012504882642339</v>
+        <v>1.39490045736248</v>
       </c>
       <c r="F6">
-        <v>1.028136239941977</v>
+        <v>0.7722144573646946</v>
       </c>
       <c r="G6">
-        <v>1.030368488095845</v>
+        <v>1.001393470037678</v>
       </c>
       <c r="H6">
-        <v>0.9638148333672143</v>
+        <v>0.6440390480130054</v>
       </c>
       <c r="I6">
-        <v>1.01706214035309</v>
+        <v>1.137684849874647</v>
       </c>
       <c r="J6">
-        <v>0.9277496916867906</v>
+        <v>0.6440390480130054</v>
       </c>
       <c r="K6">
-        <v>1.028136239941977</v>
+        <v>1.001393470037678</v>
       </c>
       <c r="L6">
-        <v>1.012504882642339</v>
+        <v>1.137684849874647</v>
       </c>
       <c r="M6">
-        <v>0.9701272871645648</v>
+        <v>0.8908619489438263</v>
       </c>
       <c r="N6">
-        <v>0.9701272871645648</v>
+        <v>0.8908619489438263</v>
       </c>
       <c r="O6">
-        <v>0.9680231358987813</v>
+        <v>0.8513127850841157</v>
       </c>
       <c r="P6">
-        <v>0.9894636047570354</v>
+        <v>0.9277057893084435</v>
       </c>
       <c r="Q6">
-        <v>0.9894636047570353</v>
+        <v>0.9277057893084435</v>
       </c>
       <c r="R6">
-        <v>0.9991317635532707</v>
+        <v>0.9461277094907521</v>
       </c>
       <c r="S6">
-        <v>0.9991317635532707</v>
+        <v>0.9461277094907521</v>
       </c>
       <c r="T6">
-        <v>0.9966060460145426</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.00803033653408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000054366479301</v>
+        <v>1.003688782107194</v>
       </c>
       <c r="D7">
-        <v>0.9992448428977605</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="E7">
-        <v>1.000265244817223</v>
+        <v>1.00599773214193</v>
       </c>
       <c r="F7">
-        <v>1.000054366479301</v>
+        <v>0.9922019755805626</v>
       </c>
       <c r="G7">
-        <v>1.000759366585184</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="H7">
-        <v>0.9995301067669025</v>
+        <v>0.9842573784909572</v>
       </c>
       <c r="I7">
-        <v>1.000203765378573</v>
+        <v>1.002492448588684</v>
       </c>
       <c r="J7">
-        <v>0.9992448428977605</v>
+        <v>0.9842573784909572</v>
       </c>
       <c r="K7">
-        <v>1.000054366479301</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="L7">
-        <v>1.000265244817223</v>
+        <v>1.002492448588684</v>
       </c>
       <c r="M7">
-        <v>0.9997550438574916</v>
+        <v>0.9933749135398205</v>
       </c>
       <c r="N7">
-        <v>0.9997550438574916</v>
+        <v>0.9933749135398205</v>
       </c>
       <c r="O7">
-        <v>0.9996800648272952</v>
+        <v>0.9929839342200678</v>
       </c>
       <c r="P7">
-        <v>0.9998548180647614</v>
+        <v>0.9977818975185769</v>
       </c>
       <c r="Q7">
-        <v>0.9998548180647614</v>
+        <v>0.9977818975185769</v>
       </c>
       <c r="R7">
-        <v>0.9999047051683965</v>
+        <v>0.9999853895079551</v>
       </c>
       <c r="S7">
-        <v>0.9999047051683965</v>
+        <v>0.9999853895079551</v>
       </c>
       <c r="T7">
-        <v>1.00000961548749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9992056970642361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000259468704766</v>
+        <v>1.0003074296281</v>
       </c>
       <c r="D8">
-        <v>0.9979339241063845</v>
+        <v>1.001214540413198</v>
       </c>
       <c r="E8">
-        <v>1.000665556130867</v>
+        <v>0.9997623617459513</v>
       </c>
       <c r="F8">
-        <v>1.000259468704766</v>
+        <v>0.9993844522872851</v>
       </c>
       <c r="G8">
-        <v>1.001889403859237</v>
+        <v>1.001214540413198</v>
       </c>
       <c r="H8">
-        <v>0.9987505276911623</v>
+        <v>0.9985149973408974</v>
       </c>
       <c r="I8">
-        <v>1.000547164225321</v>
+        <v>0.999934131721669</v>
       </c>
       <c r="J8">
-        <v>0.9979339241063845</v>
+        <v>0.9985149973408974</v>
       </c>
       <c r="K8">
-        <v>1.000259468704766</v>
+        <v>1.001214540413198</v>
       </c>
       <c r="L8">
-        <v>1.000665556130867</v>
+        <v>0.999934131721669</v>
       </c>
       <c r="M8">
-        <v>0.9992997401186255</v>
+        <v>0.9992245645312832</v>
       </c>
       <c r="N8">
-        <v>0.9992997401186255</v>
+        <v>0.9992245645312832</v>
       </c>
       <c r="O8">
-        <v>0.9991166693094712</v>
+        <v>0.9992778604499505</v>
       </c>
       <c r="P8">
-        <v>0.9996196496473392</v>
+        <v>0.9998878898252549</v>
       </c>
       <c r="Q8">
-        <v>0.9996196496473392</v>
+        <v>0.9998878898252549</v>
       </c>
       <c r="R8">
-        <v>0.999779604411696</v>
+        <v>1.000219552472241</v>
       </c>
       <c r="S8">
-        <v>0.999779604411696</v>
+        <v>1.000219552472241</v>
       </c>
       <c r="T8">
-        <v>1.000007674119623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9998529855228501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000575244977881</v>
+        <v>1.006096129136502</v>
       </c>
       <c r="D9">
-        <v>0.9970406348484514</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="E9">
-        <v>1.000844297121204</v>
+        <v>1.010336546194603</v>
       </c>
       <c r="F9">
-        <v>1.000575244977881</v>
+        <v>0.9871098057784395</v>
       </c>
       <c r="G9">
-        <v>1.002381768553075</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="H9">
-        <v>0.9982697862523308</v>
+        <v>0.9740498373656273</v>
       </c>
       <c r="I9">
-        <v>1.000765857642032</v>
+        <v>1.004299918606642</v>
       </c>
       <c r="J9">
-        <v>0.9970406348484514</v>
+        <v>0.9740498373656273</v>
       </c>
       <c r="K9">
-        <v>1.000575244977881</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="L9">
-        <v>1.000844297121204</v>
+        <v>1.004299918606642</v>
       </c>
       <c r="M9">
-        <v>0.9989424659848276</v>
+        <v>0.9891748779861347</v>
       </c>
       <c r="N9">
-        <v>0.9989424659848276</v>
+        <v>0.9891748779861347</v>
       </c>
       <c r="O9">
-        <v>0.9987182394073287</v>
+        <v>0.9884865205835697</v>
       </c>
       <c r="P9">
-        <v>0.9994867256491787</v>
+        <v>0.9962702211673641</v>
       </c>
       <c r="Q9">
-        <v>0.9994867256491787</v>
+        <v>0.9962702211673641</v>
       </c>
       <c r="R9">
-        <v>0.9997588554813543</v>
+        <v>0.9998178927579788</v>
       </c>
       <c r="S9">
-        <v>0.9997588554813543</v>
+        <v>0.9998178927579788</v>
       </c>
       <c r="T9">
-        <v>0.9999795982324956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9987255241019395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000975598991749</v>
+        <v>1.099287882214125</v>
       </c>
       <c r="D10">
-        <v>0.9937362367468814</v>
+        <v>0.9997347744414652</v>
       </c>
       <c r="E10">
-        <v>1.00191814260516</v>
+        <v>1.402643529354982</v>
       </c>
       <c r="F10">
-        <v>1.000975598991749</v>
+        <v>0.7688803991819978</v>
       </c>
       <c r="G10">
-        <v>1.005449498408287</v>
+        <v>0.9997347744414652</v>
       </c>
       <c r="H10">
-        <v>0.9962599649622478</v>
+        <v>0.6398247494840911</v>
       </c>
       <c r="I10">
-        <v>1.001643348738755</v>
+        <v>1.140256264118672</v>
       </c>
       <c r="J10">
-        <v>0.9937362367468814</v>
+        <v>0.6398247494840911</v>
       </c>
       <c r="K10">
-        <v>1.000975598991749</v>
+        <v>0.9997347744414652</v>
       </c>
       <c r="L10">
-        <v>1.00191814260516</v>
+        <v>1.140256264118672</v>
       </c>
       <c r="M10">
-        <v>0.9978271896760209</v>
+        <v>0.8900405068013817</v>
       </c>
       <c r="N10">
-        <v>0.9978271896760209</v>
+        <v>0.8900405068013817</v>
       </c>
       <c r="O10">
-        <v>0.9973047814380965</v>
+        <v>0.8496538042615871</v>
       </c>
       <c r="P10">
-        <v>0.9988766594479305</v>
+        <v>0.9266052626814095</v>
       </c>
       <c r="Q10">
-        <v>0.9988766594479305</v>
+        <v>0.9266052626814094</v>
       </c>
       <c r="R10">
-        <v>0.9994013943338851</v>
+        <v>0.9448876406214234</v>
       </c>
       <c r="S10">
-        <v>0.9994013943338851</v>
+        <v>0.9448876406214234</v>
       </c>
       <c r="T10">
-        <v>0.9999971317421803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.008437933132555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.002231334860984</v>
+        <v>1.029450304198838</v>
       </c>
       <c r="D11">
-        <v>0.9893352998904347</v>
+        <v>1.015968409295599</v>
       </c>
       <c r="E11">
-        <v>1.002966616226972</v>
+        <v>1.097967117650727</v>
       </c>
       <c r="F11">
-        <v>1.002231334860984</v>
+        <v>0.9332874349624798</v>
       </c>
       <c r="G11">
-        <v>1.008383490291586</v>
+        <v>1.015968409295599</v>
       </c>
       <c r="H11">
-        <v>0.9937878492534266</v>
+        <v>0.8874613805250366</v>
       </c>
       <c r="I11">
-        <v>1.002752248169297</v>
+        <v>1.034998406899524</v>
       </c>
       <c r="J11">
-        <v>0.9893352998904347</v>
+        <v>0.8874613805250366</v>
       </c>
       <c r="K11">
-        <v>1.002231334860984</v>
+        <v>1.015968409295599</v>
       </c>
       <c r="L11">
-        <v>1.002966616226972</v>
+        <v>1.034998406899524</v>
       </c>
       <c r="M11">
-        <v>0.9961509580587031</v>
+        <v>0.9612298937122803</v>
       </c>
       <c r="N11">
-        <v>0.9961509580587031</v>
+        <v>0.9612298937122803</v>
       </c>
       <c r="O11">
-        <v>0.9953632551236109</v>
+        <v>0.9519157407956801</v>
       </c>
       <c r="P11">
-        <v>0.9981777503261299</v>
+        <v>0.9794760655733864</v>
       </c>
       <c r="Q11">
-        <v>0.9981777503261299</v>
+        <v>0.9794760655733864</v>
       </c>
       <c r="R11">
-        <v>0.9991911464598433</v>
+        <v>0.9885991515039395</v>
       </c>
       <c r="S11">
-        <v>0.9991911464598433</v>
+        <v>0.9885991515039395</v>
       </c>
       <c r="T11">
-        <v>0.99990947311545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.9998555089220339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9901030767426142</v>
+        <v>1.030600282189472</v>
       </c>
       <c r="D12">
-        <v>1.099604240450639</v>
+        <v>1.001040263863157</v>
       </c>
       <c r="E12">
-        <v>0.9642363627479091</v>
+        <v>1.122496313526313</v>
       </c>
       <c r="F12">
-        <v>0.9901030767426142</v>
+        <v>0.928913978852632</v>
       </c>
       <c r="G12">
-        <v>0.8867789051632528</v>
+        <v>1.001040263863157</v>
       </c>
       <c r="H12">
-        <v>1.068026997146558</v>
+        <v>0.8886621848421049</v>
       </c>
       <c r="I12">
-        <v>0.9717776769041253</v>
+        <v>1.042764902094736</v>
       </c>
       <c r="J12">
-        <v>1.099604240450639</v>
+        <v>0.8886621848421049</v>
       </c>
       <c r="K12">
-        <v>0.9901030767426142</v>
+        <v>1.001040263863157</v>
       </c>
       <c r="L12">
-        <v>0.9642363627479091</v>
+        <v>1.042764902094736</v>
       </c>
       <c r="M12">
-        <v>1.031920301599274</v>
+        <v>0.9657135434684205</v>
       </c>
       <c r="N12">
-        <v>1.031920301599274</v>
+        <v>0.9657135434684205</v>
       </c>
       <c r="O12">
-        <v>1.043955866781702</v>
+        <v>0.9534470219298243</v>
       </c>
       <c r="P12">
-        <v>1.017981226647054</v>
+        <v>0.9774891169333326</v>
       </c>
       <c r="Q12">
-        <v>1.017981226647054</v>
+        <v>0.9774891169333326</v>
       </c>
       <c r="R12">
-        <v>1.011011689170944</v>
+        <v>0.9833769036657887</v>
       </c>
       <c r="S12">
-        <v>1.011011689170944</v>
+        <v>0.9833769036657887</v>
       </c>
       <c r="T12">
-        <v>0.9967545431925164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.002412987561403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9865851264171546</v>
+        <v>0.9791259715503909</v>
       </c>
       <c r="D13">
-        <v>1.049169319746993</v>
+        <v>0.9818438758286856</v>
       </c>
       <c r="E13">
-        <v>0.9914342401947632</v>
+        <v>0.941367615825668</v>
       </c>
       <c r="F13">
-        <v>0.9865851264171546</v>
+        <v>1.046041405094821</v>
       </c>
       <c r="G13">
-        <v>0.9938675432744671</v>
+        <v>0.9818438758286856</v>
       </c>
       <c r="H13">
-        <v>1.017027769342142</v>
+        <v>1.082895715139284</v>
       </c>
       <c r="I13">
-        <v>0.9900205063305436</v>
+        <v>0.9780074925758833</v>
       </c>
       <c r="J13">
-        <v>1.049169319746993</v>
+        <v>1.082895715139284</v>
       </c>
       <c r="K13">
-        <v>0.9865851264171546</v>
+        <v>0.9818438758286856</v>
       </c>
       <c r="L13">
-        <v>0.9914342401947632</v>
+        <v>0.9780074925758833</v>
       </c>
       <c r="M13">
-        <v>1.020301779970878</v>
+        <v>1.030451603857584</v>
       </c>
       <c r="N13">
-        <v>1.020301779970878</v>
+        <v>1.030451603857584</v>
       </c>
       <c r="O13">
-        <v>1.019210443094633</v>
+        <v>1.035648204269996</v>
       </c>
       <c r="P13">
-        <v>1.00906289545297</v>
+        <v>1.014249027847951</v>
       </c>
       <c r="Q13">
-        <v>1.00906289545297</v>
+        <v>1.014249027847951</v>
       </c>
       <c r="R13">
-        <v>1.003443453194016</v>
+        <v>1.006147739843135</v>
       </c>
       <c r="S13">
-        <v>1.003443453194016</v>
+        <v>1.006147739843135</v>
       </c>
       <c r="T13">
-        <v>1.004684084217677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.001547012669122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9274202683663757</v>
+        <v>1.1712413</v>
       </c>
       <c r="D14">
-        <v>1.313469549711591</v>
+        <v>0.9953291</v>
       </c>
       <c r="E14">
-        <v>0.9216589060513285</v>
+        <v>1.700309899999997</v>
       </c>
       <c r="F14">
-        <v>0.9274202683663757</v>
+        <v>0.6008495100000008</v>
       </c>
       <c r="G14">
-        <v>0.8060634505657658</v>
+        <v>0.9953291</v>
       </c>
       <c r="H14">
-        <v>1.164549136715304</v>
+        <v>0.3803151199999996</v>
       </c>
       <c r="I14">
-        <v>0.9233386069230317</v>
+        <v>1.243633200000001</v>
       </c>
       <c r="J14">
-        <v>1.313469549711591</v>
+        <v>0.3803151199999996</v>
       </c>
       <c r="K14">
-        <v>0.9274202683663757</v>
+        <v>0.9953291</v>
       </c>
       <c r="L14">
-        <v>0.9216589060513285</v>
+        <v>1.243633200000001</v>
       </c>
       <c r="M14">
-        <v>1.11756422788146</v>
+        <v>0.8119741600000002</v>
       </c>
       <c r="N14">
-        <v>1.11756422788146</v>
+        <v>0.8119741600000002</v>
       </c>
       <c r="O14">
-        <v>1.133225864159408</v>
+        <v>0.7415992766666671</v>
       </c>
       <c r="P14">
-        <v>1.054182908043098</v>
+        <v>0.8730924733333335</v>
       </c>
       <c r="Q14">
-        <v>1.054182908043098</v>
+        <v>0.8730924733333335</v>
       </c>
       <c r="R14">
-        <v>1.022492248123918</v>
+        <v>0.9036516300000002</v>
       </c>
       <c r="S14">
-        <v>1.022492248123918</v>
+        <v>0.9036516300000002</v>
       </c>
       <c r="T14">
-        <v>1.009416653055566</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.015279688333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9732590742496815</v>
+        <v>1.1014624</v>
       </c>
       <c r="D15">
-        <v>1.066254135915258</v>
+        <v>1.3679559</v>
       </c>
       <c r="E15">
-        <v>0.9849626965304025</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F15">
-        <v>0.9732590742496815</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="G15">
-        <v>0.9427257328289709</v>
+        <v>1.3679559</v>
       </c>
       <c r="H15">
-        <v>1.045189528217952</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I15">
-        <v>0.9815505541449745</v>
+        <v>0.99179431</v>
       </c>
       <c r="J15">
-        <v>1.066254135915258</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="K15">
-        <v>0.9732590742496815</v>
+        <v>1.3679559</v>
       </c>
       <c r="L15">
-        <v>0.9849626965304025</v>
+        <v>0.99179431</v>
       </c>
       <c r="M15">
-        <v>1.02560841622283</v>
+        <v>0.75735024</v>
       </c>
       <c r="N15">
-        <v>1.02560841622283</v>
+        <v>0.75735024</v>
       </c>
       <c r="O15">
-        <v>1.032135453554538</v>
+        <v>0.76950231</v>
       </c>
       <c r="P15">
-        <v>1.008158635565114</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q15">
-        <v>1.008158635565114</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R15">
-        <v>0.9994337452362559</v>
+        <v>1.06265307</v>
       </c>
       <c r="S15">
-        <v>0.9994337452362559</v>
+        <v>1.06265307</v>
       </c>
       <c r="T15">
-        <v>0.9989902869812067</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9566266583333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9991331215880666</v>
+        <v>1.1927336</v>
       </c>
       <c r="D16">
-        <v>1.000371142783852</v>
+        <v>0.98338768</v>
       </c>
       <c r="E16">
-        <v>1.000310964291359</v>
+        <v>1.8205079</v>
       </c>
       <c r="F16">
-        <v>0.9991331215880666</v>
+        <v>0.54499978</v>
       </c>
       <c r="G16">
-        <v>1.000911852486282</v>
+        <v>0.98338768</v>
       </c>
       <c r="H16">
-        <v>1.000008773383888</v>
+        <v>0.31101525</v>
       </c>
       <c r="I16">
-        <v>0.9999675710378897</v>
+        <v>1.2788842</v>
       </c>
       <c r="J16">
-        <v>1.000371142783852</v>
+        <v>0.31101525</v>
       </c>
       <c r="K16">
-        <v>0.9991331215880666</v>
+        <v>0.98338768</v>
       </c>
       <c r="L16">
-        <v>1.000310964291359</v>
+        <v>1.2788842</v>
       </c>
       <c r="M16">
-        <v>1.000341053537606</v>
+        <v>0.7949497250000001</v>
       </c>
       <c r="N16">
-        <v>1.000341053537606</v>
+        <v>0.7949497250000001</v>
       </c>
       <c r="O16">
-        <v>1.000230293486366</v>
+        <v>0.7116330766666668</v>
       </c>
       <c r="P16">
-        <v>0.9999384095544258</v>
+        <v>0.8577623766666668</v>
       </c>
       <c r="Q16">
-        <v>0.9999384095544258</v>
+        <v>0.8577623766666665</v>
       </c>
       <c r="R16">
-        <v>0.999737087562836</v>
+        <v>0.8891687024999999</v>
       </c>
       <c r="S16">
-        <v>0.999737087562836</v>
+        <v>0.8891687024999999</v>
       </c>
       <c r="T16">
-        <v>1.000117237595223</v>
+        <v>1.021921401666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.001214540413198</v>
+        <v>0.95743351</v>
       </c>
       <c r="D17">
-        <v>0.9985149973408972</v>
+        <v>0.9731181</v>
       </c>
       <c r="E17">
-        <v>0.9999341317216691</v>
+        <v>0.87603166</v>
       </c>
       <c r="F17">
-        <v>1.001214540413198</v>
+        <v>1.0922641</v>
       </c>
       <c r="G17">
-        <v>0.9997623617459513</v>
+        <v>0.9731181</v>
       </c>
       <c r="H17">
-        <v>0.9993844522872853</v>
+        <v>1.1717494</v>
       </c>
       <c r="I17">
-        <v>1.000307429628099</v>
+        <v>0.9509789400000002</v>
       </c>
       <c r="J17">
-        <v>0.9985149973408972</v>
+        <v>1.1717494</v>
       </c>
       <c r="K17">
-        <v>1.001214540413198</v>
+        <v>0.9731181</v>
       </c>
       <c r="L17">
-        <v>0.9999341317216691</v>
+        <v>0.9509789400000002</v>
       </c>
       <c r="M17">
-        <v>0.9992245645312832</v>
+        <v>1.06136417</v>
       </c>
       <c r="N17">
-        <v>0.9992245645312832</v>
+        <v>1.06136417</v>
       </c>
       <c r="O17">
-        <v>0.9992778604499506</v>
+        <v>1.071664146666667</v>
       </c>
       <c r="P17">
-        <v>0.9998878898252549</v>
+        <v>1.031948813333333</v>
       </c>
       <c r="Q17">
-        <v>0.9998878898252549</v>
+        <v>1.031948813333333</v>
       </c>
       <c r="R17">
-        <v>1.000219552472241</v>
+        <v>1.017241135</v>
       </c>
       <c r="S17">
-        <v>1.000219552472241</v>
+        <v>1.017241135</v>
       </c>
       <c r="T17">
-        <v>0.9998529855228502</v>
+        <v>1.003595951666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9994224523830879</v>
+        <v>1.073538549041096</v>
       </c>
       <c r="D18">
-        <v>0.9969090791139731</v>
+        <v>1.131962023287671</v>
       </c>
       <c r="E18">
-        <v>1.001454119261293</v>
+        <v>1.117321599452055</v>
       </c>
       <c r="F18">
-        <v>0.9994224523830879</v>
+        <v>0.8450648163013699</v>
       </c>
       <c r="G18">
-        <v>1.003872630583299</v>
+        <v>1.131962023287671</v>
       </c>
       <c r="H18">
-        <v>0.9980367279288511</v>
+        <v>0.6850971047945206</v>
       </c>
       <c r="I18">
-        <v>1.0008617953749</v>
+        <v>1.049495933835616</v>
       </c>
       <c r="J18">
-        <v>0.9969090791139731</v>
+        <v>0.6850971047945206</v>
       </c>
       <c r="K18">
-        <v>0.9994224523830879</v>
+        <v>1.131962023287671</v>
       </c>
       <c r="L18">
-        <v>1.001454119261293</v>
+        <v>1.049495933835616</v>
       </c>
       <c r="M18">
-        <v>0.9991815991876332</v>
+        <v>0.8672965193150686</v>
       </c>
       <c r="N18">
-        <v>0.9991815991876332</v>
+        <v>0.8672965193150686</v>
       </c>
       <c r="O18">
-        <v>0.9987999754347058</v>
+        <v>0.8598859516438356</v>
       </c>
       <c r="P18">
-        <v>0.9992618835861181</v>
+        <v>0.9555183539726025</v>
       </c>
       <c r="Q18">
-        <v>0.9992618835861181</v>
+        <v>0.9555183539726025</v>
       </c>
       <c r="R18">
-        <v>0.9993020257853605</v>
+        <v>0.9996292713013697</v>
       </c>
       <c r="S18">
-        <v>0.9993020257853605</v>
+        <v>0.9996292713013697</v>
       </c>
       <c r="T18">
-        <v>1.000092800774234</v>
+        <v>0.9837466711187215</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9959658868719966</v>
+        <v>1.034633363157895</v>
       </c>
       <c r="D19">
-        <v>0.9937255319926425</v>
+        <v>0.9591053063157894</v>
       </c>
       <c r="E19">
-        <v>1.004374040860381</v>
+        <v>1.210429528421053</v>
       </c>
       <c r="F19">
-        <v>0.9959658868719966</v>
+        <v>0.9102952789473686</v>
       </c>
       <c r="G19">
-        <v>1.011527121447685</v>
+        <v>0.9591053063157894</v>
       </c>
       <c r="H19">
-        <v>0.9955245923848166</v>
+        <v>0.8967398173684209</v>
       </c>
       <c r="I19">
-        <v>1.001922684733165</v>
+        <v>1.065714882631579</v>
       </c>
       <c r="J19">
-        <v>0.9937255319926425</v>
+        <v>0.8967398173684209</v>
       </c>
       <c r="K19">
-        <v>0.9959658868719966</v>
+        <v>0.9591053063157894</v>
       </c>
       <c r="L19">
-        <v>1.004374040860381</v>
+        <v>1.065714882631579</v>
       </c>
       <c r="M19">
-        <v>0.9990497864265115</v>
+        <v>0.9812273499999999</v>
       </c>
       <c r="N19">
-        <v>0.9990497864265115</v>
+        <v>0.9812273499999999</v>
       </c>
       <c r="O19">
-        <v>0.9978747217459466</v>
+        <v>0.9575833263157895</v>
       </c>
       <c r="P19">
-        <v>0.9980218199083399</v>
+        <v>0.9738533354385964</v>
       </c>
       <c r="Q19">
-        <v>0.9980218199083399</v>
+        <v>0.9738533354385964</v>
       </c>
       <c r="R19">
-        <v>0.9975078366492541</v>
+        <v>0.9701663281578946</v>
       </c>
       <c r="S19">
-        <v>0.9975078366492541</v>
+        <v>0.9701663281578946</v>
       </c>
       <c r="T19">
-        <v>1.000506643048448</v>
+        <v>1.012819696140351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.086391</v>
+      </c>
+      <c r="D20">
+        <v>1.15470045368421</v>
+      </c>
+      <c r="E20">
+        <v>1.141658918947368</v>
+      </c>
+      <c r="F20">
+        <v>0.8168903068421052</v>
+      </c>
+      <c r="G20">
+        <v>1.15470045368421</v>
+      </c>
+      <c r="H20">
+        <v>0.6327596221052632</v>
+      </c>
+      <c r="I20">
+        <v>1.05828011631579</v>
+      </c>
+      <c r="J20">
+        <v>0.6327596221052632</v>
+      </c>
+      <c r="K20">
+        <v>1.15470045368421</v>
+      </c>
+      <c r="L20">
+        <v>1.05828011631579</v>
+      </c>
+      <c r="M20">
+        <v>0.8455198692105265</v>
+      </c>
+      <c r="N20">
+        <v>0.8455198692105265</v>
+      </c>
+      <c r="O20">
+        <v>0.835976681754386</v>
+      </c>
+      <c r="P20">
+        <v>0.9485800640350878</v>
+      </c>
+      <c r="Q20">
+        <v>0.9485800640350878</v>
+      </c>
+      <c r="R20">
+        <v>1.000110161447368</v>
+      </c>
+      <c r="S20">
+        <v>1.000110161447368</v>
+      </c>
+      <c r="T20">
+        <v>0.9817800696491229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9233386069230317</v>
+      </c>
+      <c r="D21">
+        <v>0.9274202683663757</v>
+      </c>
+      <c r="E21">
+        <v>0.8060634505657658</v>
+      </c>
+      <c r="F21">
+        <v>1.164549136715304</v>
+      </c>
+      <c r="G21">
+        <v>0.9274202683663757</v>
+      </c>
+      <c r="H21">
+        <v>1.31346954971159</v>
+      </c>
+      <c r="I21">
+        <v>0.9216589060513284</v>
+      </c>
+      <c r="J21">
+        <v>1.31346954971159</v>
+      </c>
+      <c r="K21">
+        <v>0.9274202683663757</v>
+      </c>
+      <c r="L21">
+        <v>0.9216589060513284</v>
+      </c>
+      <c r="M21">
+        <v>1.117564227881459</v>
+      </c>
+      <c r="N21">
+        <v>1.117564227881459</v>
+      </c>
+      <c r="O21">
+        <v>1.133225864159408</v>
+      </c>
+      <c r="P21">
+        <v>1.054182908043098</v>
+      </c>
+      <c r="Q21">
+        <v>1.054182908043098</v>
+      </c>
+      <c r="R21">
+        <v>1.022492248123918</v>
+      </c>
+      <c r="S21">
+        <v>1.022492248123918</v>
+      </c>
+      <c r="T21">
+        <v>1.009416653055566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9815505541449745</v>
+      </c>
+      <c r="D22">
+        <v>0.9732590742496815</v>
+      </c>
+      <c r="E22">
+        <v>0.9427257328289709</v>
+      </c>
+      <c r="F22">
+        <v>1.045189528217952</v>
+      </c>
+      <c r="G22">
+        <v>0.9732590742496815</v>
+      </c>
+      <c r="H22">
+        <v>1.066254135915258</v>
+      </c>
+      <c r="I22">
+        <v>0.9849626965304025</v>
+      </c>
+      <c r="J22">
+        <v>1.066254135915258</v>
+      </c>
+      <c r="K22">
+        <v>0.9732590742496815</v>
+      </c>
+      <c r="L22">
+        <v>0.9849626965304025</v>
+      </c>
+      <c r="M22">
+        <v>1.02560841622283</v>
+      </c>
+      <c r="N22">
+        <v>1.02560841622283</v>
+      </c>
+      <c r="O22">
+        <v>1.032135453554538</v>
+      </c>
+      <c r="P22">
+        <v>1.008158635565114</v>
+      </c>
+      <c r="Q22">
+        <v>1.008158635565114</v>
+      </c>
+      <c r="R22">
+        <v>0.9994337452362559</v>
+      </c>
+      <c r="S22">
+        <v>0.9994337452362559</v>
+      </c>
+      <c r="T22">
+        <v>0.9989902869812067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9717776769041253</v>
+      </c>
+      <c r="D23">
+        <v>0.9901030767426142</v>
+      </c>
+      <c r="E23">
+        <v>0.8867789051632528</v>
+      </c>
+      <c r="F23">
+        <v>1.068026997146558</v>
+      </c>
+      <c r="G23">
+        <v>0.9901030767426142</v>
+      </c>
+      <c r="H23">
+        <v>1.099604240450639</v>
+      </c>
+      <c r="I23">
+        <v>0.964236362747909</v>
+      </c>
+      <c r="J23">
+        <v>1.099604240450639</v>
+      </c>
+      <c r="K23">
+        <v>0.9901030767426142</v>
+      </c>
+      <c r="L23">
+        <v>0.964236362747909</v>
+      </c>
+      <c r="M23">
+        <v>1.031920301599274</v>
+      </c>
+      <c r="N23">
+        <v>1.031920301599274</v>
+      </c>
+      <c r="O23">
+        <v>1.043955866781702</v>
+      </c>
+      <c r="P23">
+        <v>1.017981226647054</v>
+      </c>
+      <c r="Q23">
+        <v>1.017981226647054</v>
+      </c>
+      <c r="R23">
+        <v>1.011011689170944</v>
+      </c>
+      <c r="S23">
+        <v>1.011011689170944</v>
+      </c>
+      <c r="T23">
+        <v>0.9967545431925164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9900205063305437</v>
+      </c>
+      <c r="D24">
+        <v>0.9865851264171546</v>
+      </c>
+      <c r="E24">
+        <v>0.993867543274467</v>
+      </c>
+      <c r="F24">
+        <v>1.017027769342142</v>
+      </c>
+      <c r="G24">
+        <v>0.9865851264171546</v>
+      </c>
+      <c r="H24">
+        <v>1.049169319746993</v>
+      </c>
+      <c r="I24">
+        <v>0.9914342401947632</v>
+      </c>
+      <c r="J24">
+        <v>1.049169319746993</v>
+      </c>
+      <c r="K24">
+        <v>0.9865851264171546</v>
+      </c>
+      <c r="L24">
+        <v>0.9914342401947632</v>
+      </c>
+      <c r="M24">
+        <v>1.020301779970878</v>
+      </c>
+      <c r="N24">
+        <v>1.020301779970878</v>
+      </c>
+      <c r="O24">
+        <v>1.019210443094633</v>
+      </c>
+      <c r="P24">
+        <v>1.00906289545297</v>
+      </c>
+      <c r="Q24">
+        <v>1.00906289545297</v>
+      </c>
+      <c r="R24">
+        <v>1.003443453194016</v>
+      </c>
+      <c r="S24">
+        <v>1.003443453194016</v>
+      </c>
+      <c r="T24">
+        <v>1.004684084217677</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.048288748384161</v>
+      </c>
+      <c r="D25">
+        <v>1.170804741177534</v>
+      </c>
+      <c r="E25">
+        <v>0.9709460032307416</v>
+      </c>
+      <c r="F25">
+        <v>0.9061303568451099</v>
+      </c>
+      <c r="G25">
+        <v>1.170804741177534</v>
+      </c>
+      <c r="H25">
+        <v>0.7660126540988763</v>
+      </c>
+      <c r="I25">
+        <v>0.9978706493416439</v>
+      </c>
+      <c r="J25">
+        <v>0.7660126540988763</v>
+      </c>
+      <c r="K25">
+        <v>1.170804741177534</v>
+      </c>
+      <c r="L25">
+        <v>0.9978706493416439</v>
+      </c>
+      <c r="M25">
+        <v>0.8819416517202601</v>
+      </c>
+      <c r="N25">
+        <v>0.8819416517202601</v>
+      </c>
+      <c r="O25">
+        <v>0.8900045534285433</v>
+      </c>
+      <c r="P25">
+        <v>0.9782293482060181</v>
+      </c>
+      <c r="Q25">
+        <v>0.9782293482060181</v>
+      </c>
+      <c r="R25">
+        <v>1.026373196448897</v>
+      </c>
+      <c r="S25">
+        <v>1.026373196448897</v>
+      </c>
+      <c r="T25">
+        <v>0.9766755255130111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.008378478316122</v>
+      </c>
+      <c r="D26">
+        <v>0.9539212020975416</v>
+      </c>
+      <c r="E26">
+        <v>1.084883183885407</v>
+      </c>
+      <c r="F26">
+        <v>0.9781754819859947</v>
+      </c>
+      <c r="G26">
+        <v>0.9539212020975416</v>
+      </c>
+      <c r="H26">
+        <v>0.9814420402170202</v>
+      </c>
+      <c r="I26">
+        <v>1.030788878303438</v>
+      </c>
+      <c r="J26">
+        <v>0.9814420402170202</v>
+      </c>
+      <c r="K26">
+        <v>0.9539212020975416</v>
+      </c>
+      <c r="L26">
+        <v>1.030788878303438</v>
+      </c>
+      <c r="M26">
+        <v>1.006115459260229</v>
+      </c>
+      <c r="N26">
+        <v>1.006115459260229</v>
+      </c>
+      <c r="O26">
+        <v>0.996802133502151</v>
+      </c>
+      <c r="P26">
+        <v>0.9887173735393332</v>
+      </c>
+      <c r="Q26">
+        <v>0.9887173735393332</v>
+      </c>
+      <c r="R26">
+        <v>0.9800183306788853</v>
+      </c>
+      <c r="S26">
+        <v>0.9800183306788853</v>
+      </c>
+      <c r="T26">
+        <v>1.006264877467587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.011272863400434</v>
+      </c>
+      <c r="D27">
+        <v>1.015835598680657</v>
+      </c>
+      <c r="E27">
+        <v>1.024562303027936</v>
+      </c>
+      <c r="F27">
+        <v>0.9754579617518367</v>
+      </c>
+      <c r="G27">
+        <v>1.015835598680657</v>
+      </c>
+      <c r="H27">
+        <v>0.9544922846556952</v>
+      </c>
+      <c r="I27">
+        <v>1.009395235399992</v>
+      </c>
+      <c r="J27">
+        <v>0.9544922846556952</v>
+      </c>
+      <c r="K27">
+        <v>1.015835598680657</v>
+      </c>
+      <c r="L27">
+        <v>1.009395235399992</v>
+      </c>
+      <c r="M27">
+        <v>0.9819437600278436</v>
+      </c>
+      <c r="N27">
+        <v>0.9819437600278436</v>
+      </c>
+      <c r="O27">
+        <v>0.9797818272691746</v>
+      </c>
+      <c r="P27">
+        <v>0.9932410395787814</v>
+      </c>
+      <c r="Q27">
+        <v>0.9932410395787815</v>
+      </c>
+      <c r="R27">
+        <v>0.9988896793542505</v>
+      </c>
+      <c r="S27">
+        <v>0.9988896793542505</v>
+      </c>
+      <c r="T27">
+        <v>0.9985027078194252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.005880915685563</v>
+      </c>
+      <c r="D28">
+        <v>1.016142682431906</v>
+      </c>
+      <c r="E28">
+        <v>0.9984726828593128</v>
+      </c>
+      <c r="F28">
+        <v>0.9891447395836463</v>
+      </c>
+      <c r="G28">
+        <v>1.016142682431906</v>
+      </c>
+      <c r="H28">
+        <v>0.9719295624541677</v>
+      </c>
+      <c r="I28">
+        <v>1.001657963261461</v>
+      </c>
+      <c r="J28">
+        <v>0.9719295624541677</v>
+      </c>
+      <c r="K28">
+        <v>1.016142682431906</v>
+      </c>
+      <c r="L28">
+        <v>1.001657963261461</v>
+      </c>
+      <c r="M28">
+        <v>0.9867937628578144</v>
+      </c>
+      <c r="N28">
+        <v>0.9867937628578144</v>
+      </c>
+      <c r="O28">
+        <v>0.9875774217664249</v>
+      </c>
+      <c r="P28">
+        <v>0.9965767360491782</v>
+      </c>
+      <c r="Q28">
+        <v>0.9965767360491782</v>
+      </c>
+      <c r="R28">
+        <v>1.00146822264486</v>
+      </c>
+      <c r="S28">
+        <v>1.00146822264486</v>
+      </c>
+      <c r="T28">
+        <v>0.9972047577126761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9709921771012899</v>
+      </c>
+      <c r="D29">
+        <v>1.010243743108648</v>
+      </c>
+      <c r="E29">
+        <v>0.8916816098970854</v>
+      </c>
+      <c r="F29">
+        <v>1.062162124410168</v>
+      </c>
+      <c r="G29">
+        <v>1.010243743108648</v>
+      </c>
+      <c r="H29">
+        <v>1.113087416657934</v>
+      </c>
+      <c r="I29">
+        <v>0.9548392806873316</v>
+      </c>
+      <c r="J29">
+        <v>1.113087416657934</v>
+      </c>
+      <c r="K29">
+        <v>1.010243743108648</v>
+      </c>
+      <c r="L29">
+        <v>0.9548392806873316</v>
+      </c>
+      <c r="M29">
+        <v>1.033963348672633</v>
+      </c>
+      <c r="N29">
+        <v>1.033963348672633</v>
+      </c>
+      <c r="O29">
+        <v>1.043362940585145</v>
+      </c>
+      <c r="P29">
+        <v>1.026056813484638</v>
+      </c>
+      <c r="Q29">
+        <v>1.026056813484638</v>
+      </c>
+      <c r="R29">
+        <v>1.02210354589064</v>
+      </c>
+      <c r="S29">
+        <v>1.02210354589064</v>
+      </c>
+      <c r="T29">
+        <v>1.000501058643743</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.02699251179869</v>
+        <v>1.024930962259654</v>
       </c>
       <c r="D4">
-        <v>1.006658662493471</v>
+        <v>1.006612105130286</v>
       </c>
       <c r="E4">
-        <v>1.101343569781769</v>
+        <v>1.091594307678387</v>
       </c>
       <c r="F4">
-        <v>0.9376935632814141</v>
+        <v>0.9428853981786706</v>
       </c>
       <c r="G4">
-        <v>1.006658662493471</v>
+        <v>1.006612105130286</v>
       </c>
       <c r="H4">
-        <v>0.900080038043426</v>
+        <v>0.9070071856223452</v>
       </c>
       <c r="I4">
-        <v>1.035360347767769</v>
+        <v>1.032469587226736</v>
       </c>
       <c r="J4">
-        <v>0.900080038043426</v>
+        <v>0.9070071856223452</v>
       </c>
       <c r="K4">
-        <v>1.006658662493471</v>
+        <v>1.006612105130286</v>
       </c>
       <c r="L4">
-        <v>1.035360347767769</v>
+        <v>1.032469587226736</v>
       </c>
       <c r="M4">
-        <v>0.9677201929055975</v>
+        <v>0.9697383864245408</v>
       </c>
       <c r="N4">
-        <v>0.9677201929055975</v>
+        <v>0.9697383864245408</v>
       </c>
       <c r="O4">
-        <v>0.957711316364203</v>
+        <v>0.960787390342584</v>
       </c>
       <c r="P4">
-        <v>0.9806996827682219</v>
+        <v>0.9820296259931226</v>
       </c>
       <c r="Q4">
-        <v>0.9806996827682219</v>
+        <v>0.9820296259931226</v>
       </c>
       <c r="R4">
-        <v>0.9871894276995341</v>
+        <v>0.9881752457774136</v>
       </c>
       <c r="S4">
-        <v>0.9871894276995341</v>
+        <v>0.9881752457774136</v>
       </c>
       <c r="T4">
-        <v>1.001354782194423</v>
+        <v>1.000916591016013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.030666590389046</v>
+        <v>1.079222284865685</v>
       </c>
       <c r="D5">
-        <v>1.012286077435158</v>
+        <v>1.161524887667398</v>
       </c>
       <c r="E5">
-        <v>1.107265454524491</v>
+        <v>1.102171888495448</v>
       </c>
       <c r="F5">
-        <v>0.9301767551296822</v>
+        <v>0.8347138893889645</v>
       </c>
       <c r="G5">
-        <v>1.012286077435158</v>
+        <v>1.161524887667398</v>
       </c>
       <c r="H5">
-        <v>0.8842290567146981</v>
+        <v>0.6558671069398814</v>
       </c>
       <c r="I5">
-        <v>1.038230588278098</v>
+        <v>1.045352899433846</v>
       </c>
       <c r="J5">
-        <v>0.8842290567146981</v>
+        <v>0.6558671069398814</v>
       </c>
       <c r="K5">
-        <v>1.012286077435158</v>
+        <v>1.161524887667398</v>
       </c>
       <c r="L5">
-        <v>1.038230588278098</v>
+        <v>1.045352899433846</v>
       </c>
       <c r="M5">
-        <v>0.9612298224963978</v>
+        <v>0.8506100031868638</v>
       </c>
       <c r="N5">
-        <v>0.9612298224963978</v>
+        <v>0.8506100031868638</v>
       </c>
       <c r="O5">
-        <v>0.9508788000408259</v>
+        <v>0.845311298587564</v>
       </c>
       <c r="P5">
-        <v>0.9782485741426511</v>
+        <v>0.9542482980137086</v>
       </c>
       <c r="Q5">
-        <v>0.9782485741426511</v>
+        <v>0.9542482980137086</v>
       </c>
       <c r="R5">
-        <v>0.9867579499657778</v>
+        <v>1.006067445427131</v>
       </c>
       <c r="S5">
-        <v>0.9867579499657778</v>
+        <v>1.006067445427131</v>
       </c>
       <c r="T5">
-        <v>1.000475753745195</v>
+        <v>0.9798088261318704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.097949736551977</v>
+        <v>1.02699251179869</v>
       </c>
       <c r="D6">
-        <v>1.001393470037678</v>
+        <v>1.006658662493471</v>
       </c>
       <c r="E6">
-        <v>1.39490045736248</v>
+        <v>1.101343569781769</v>
       </c>
       <c r="F6">
-        <v>0.7722144573646946</v>
+        <v>0.9376935632814141</v>
       </c>
       <c r="G6">
-        <v>1.001393470037678</v>
+        <v>1.006658662493471</v>
       </c>
       <c r="H6">
-        <v>0.6440390480130054</v>
+        <v>0.900080038043426</v>
       </c>
       <c r="I6">
-        <v>1.137684849874647</v>
+        <v>1.035360347767769</v>
       </c>
       <c r="J6">
-        <v>0.6440390480130054</v>
+        <v>0.900080038043426</v>
       </c>
       <c r="K6">
-        <v>1.001393470037678</v>
+        <v>1.006658662493471</v>
       </c>
       <c r="L6">
-        <v>1.137684849874647</v>
+        <v>1.035360347767769</v>
       </c>
       <c r="M6">
-        <v>0.8908619489438263</v>
+        <v>0.9677201929055975</v>
       </c>
       <c r="N6">
-        <v>0.8908619489438263</v>
+        <v>0.9677201929055975</v>
       </c>
       <c r="O6">
-        <v>0.8513127850841157</v>
+        <v>0.957711316364203</v>
       </c>
       <c r="P6">
-        <v>0.9277057893084435</v>
+        <v>0.9806996827682219</v>
       </c>
       <c r="Q6">
-        <v>0.9277057893084435</v>
+        <v>0.9806996827682219</v>
       </c>
       <c r="R6">
-        <v>0.9461277094907521</v>
+        <v>0.9871894276995341</v>
       </c>
       <c r="S6">
-        <v>0.9461277094907521</v>
+        <v>0.9871894276995341</v>
       </c>
       <c r="T6">
-        <v>1.00803033653408</v>
+        <v>1.001354782194423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.003688782107194</v>
+        <v>1.030666590389046</v>
       </c>
       <c r="D7">
-        <v>1.00659586547609</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="E7">
-        <v>1.00599773214193</v>
+        <v>1.107265454524491</v>
       </c>
       <c r="F7">
-        <v>0.9922019755805626</v>
+        <v>0.9301767551296822</v>
       </c>
       <c r="G7">
-        <v>1.00659586547609</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="H7">
-        <v>0.9842573784909572</v>
+        <v>0.8842290567146981</v>
       </c>
       <c r="I7">
-        <v>1.002492448588684</v>
+        <v>1.038230588278098</v>
       </c>
       <c r="J7">
-        <v>0.9842573784909572</v>
+        <v>0.8842290567146981</v>
       </c>
       <c r="K7">
-        <v>1.00659586547609</v>
+        <v>1.012286077435158</v>
       </c>
       <c r="L7">
-        <v>1.002492448588684</v>
+        <v>1.038230588278098</v>
       </c>
       <c r="M7">
-        <v>0.9933749135398205</v>
+        <v>0.9612298224963978</v>
       </c>
       <c r="N7">
-        <v>0.9933749135398205</v>
+        <v>0.9612298224963978</v>
       </c>
       <c r="O7">
-        <v>0.9929839342200678</v>
+        <v>0.9508788000408259</v>
       </c>
       <c r="P7">
-        <v>0.9977818975185769</v>
+        <v>0.9782485741426511</v>
       </c>
       <c r="Q7">
-        <v>0.9977818975185769</v>
+        <v>0.9782485741426511</v>
       </c>
       <c r="R7">
-        <v>0.9999853895079551</v>
+        <v>0.9867579499657778</v>
       </c>
       <c r="S7">
-        <v>0.9999853895079551</v>
+        <v>0.9867579499657778</v>
       </c>
       <c r="T7">
-        <v>0.9992056970642361</v>
+        <v>1.000475753745195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.0003074296281</v>
+        <v>1.097949736551977</v>
       </c>
       <c r="D8">
-        <v>1.001214540413198</v>
+        <v>1.001393470037678</v>
       </c>
       <c r="E8">
-        <v>0.9997623617459513</v>
+        <v>1.39490045736248</v>
       </c>
       <c r="F8">
-        <v>0.9993844522872851</v>
+        <v>0.7722144573646946</v>
       </c>
       <c r="G8">
-        <v>1.001214540413198</v>
+        <v>1.001393470037678</v>
       </c>
       <c r="H8">
-        <v>0.9985149973408974</v>
+        <v>0.6440390480130054</v>
       </c>
       <c r="I8">
-        <v>0.999934131721669</v>
+        <v>1.137684849874647</v>
       </c>
       <c r="J8">
-        <v>0.9985149973408974</v>
+        <v>0.6440390480130054</v>
       </c>
       <c r="K8">
-        <v>1.001214540413198</v>
+        <v>1.001393470037678</v>
       </c>
       <c r="L8">
-        <v>0.999934131721669</v>
+        <v>1.137684849874647</v>
       </c>
       <c r="M8">
-        <v>0.9992245645312832</v>
+        <v>0.8908619489438263</v>
       </c>
       <c r="N8">
-        <v>0.9992245645312832</v>
+        <v>0.8908619489438263</v>
       </c>
       <c r="O8">
-        <v>0.9992778604499505</v>
+        <v>0.8513127850841157</v>
       </c>
       <c r="P8">
-        <v>0.9998878898252549</v>
+        <v>0.9277057893084435</v>
       </c>
       <c r="Q8">
-        <v>0.9998878898252549</v>
+        <v>0.9277057893084435</v>
       </c>
       <c r="R8">
-        <v>1.000219552472241</v>
+        <v>0.9461277094907521</v>
       </c>
       <c r="S8">
-        <v>1.000219552472241</v>
+        <v>0.9461277094907521</v>
       </c>
       <c r="T8">
-        <v>0.9998529855228501</v>
+        <v>1.00803033653408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.006096129136502</v>
+        <v>1.003688782107194</v>
       </c>
       <c r="D9">
-        <v>1.010460907529823</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="E9">
-        <v>1.010336546194603</v>
+        <v>1.00599773214193</v>
       </c>
       <c r="F9">
-        <v>0.9871098057784395</v>
+        <v>0.9922019755805626</v>
       </c>
       <c r="G9">
-        <v>1.010460907529823</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="H9">
-        <v>0.9740498373656273</v>
+        <v>0.9842573784909572</v>
       </c>
       <c r="I9">
-        <v>1.004299918606642</v>
+        <v>1.002492448588684</v>
       </c>
       <c r="J9">
-        <v>0.9740498373656273</v>
+        <v>0.9842573784909572</v>
       </c>
       <c r="K9">
-        <v>1.010460907529823</v>
+        <v>1.00659586547609</v>
       </c>
       <c r="L9">
-        <v>1.004299918606642</v>
+        <v>1.002492448588684</v>
       </c>
       <c r="M9">
-        <v>0.9891748779861347</v>
+        <v>0.9933749135398205</v>
       </c>
       <c r="N9">
-        <v>0.9891748779861347</v>
+        <v>0.9933749135398205</v>
       </c>
       <c r="O9">
-        <v>0.9884865205835697</v>
+        <v>0.9929839342200678</v>
       </c>
       <c r="P9">
-        <v>0.9962702211673641</v>
+        <v>0.9977818975185769</v>
       </c>
       <c r="Q9">
-        <v>0.9962702211673641</v>
+        <v>0.9977818975185769</v>
       </c>
       <c r="R9">
-        <v>0.9998178927579788</v>
+        <v>0.9999853895079551</v>
       </c>
       <c r="S9">
-        <v>0.9998178927579788</v>
+        <v>0.9999853895079551</v>
       </c>
       <c r="T9">
-        <v>0.9987255241019395</v>
+        <v>0.9992056970642361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.099287882214125</v>
+        <v>1.0003074296281</v>
       </c>
       <c r="D10">
-        <v>0.9997347744414652</v>
+        <v>1.001214540413198</v>
       </c>
       <c r="E10">
-        <v>1.402643529354982</v>
+        <v>0.9997623617459513</v>
       </c>
       <c r="F10">
-        <v>0.7688803991819978</v>
+        <v>0.9993844522872851</v>
       </c>
       <c r="G10">
-        <v>0.9997347744414652</v>
+        <v>1.001214540413198</v>
       </c>
       <c r="H10">
-        <v>0.6398247494840911</v>
+        <v>0.9985149973408974</v>
       </c>
       <c r="I10">
-        <v>1.140256264118672</v>
+        <v>0.999934131721669</v>
       </c>
       <c r="J10">
-        <v>0.6398247494840911</v>
+        <v>0.9985149973408974</v>
       </c>
       <c r="K10">
-        <v>0.9997347744414652</v>
+        <v>1.001214540413198</v>
       </c>
       <c r="L10">
-        <v>1.140256264118672</v>
+        <v>0.999934131721669</v>
       </c>
       <c r="M10">
-        <v>0.8900405068013817</v>
+        <v>0.9992245645312832</v>
       </c>
       <c r="N10">
-        <v>0.8900405068013817</v>
+        <v>0.9992245645312832</v>
       </c>
       <c r="O10">
-        <v>0.8496538042615871</v>
+        <v>0.9992778604499505</v>
       </c>
       <c r="P10">
-        <v>0.9266052626814095</v>
+        <v>0.9998878898252549</v>
       </c>
       <c r="Q10">
-        <v>0.9266052626814094</v>
+        <v>0.9998878898252549</v>
       </c>
       <c r="R10">
-        <v>0.9448876406214234</v>
+        <v>1.000219552472241</v>
       </c>
       <c r="S10">
-        <v>0.9448876406214234</v>
+        <v>1.000219552472241</v>
       </c>
       <c r="T10">
-        <v>1.008437933132555</v>
+        <v>0.9998529855228501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.029450304198838</v>
+        <v>1.006096129136502</v>
       </c>
       <c r="D11">
-        <v>1.015968409295599</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="E11">
-        <v>1.097967117650727</v>
+        <v>1.010336546194603</v>
       </c>
       <c r="F11">
-        <v>0.9332874349624798</v>
+        <v>0.9871098057784395</v>
       </c>
       <c r="G11">
-        <v>1.015968409295599</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="H11">
-        <v>0.8874613805250366</v>
+        <v>0.9740498373656273</v>
       </c>
       <c r="I11">
-        <v>1.034998406899524</v>
+        <v>1.004299918606642</v>
       </c>
       <c r="J11">
-        <v>0.8874613805250366</v>
+        <v>0.9740498373656273</v>
       </c>
       <c r="K11">
-        <v>1.015968409295599</v>
+        <v>1.010460907529823</v>
       </c>
       <c r="L11">
-        <v>1.034998406899524</v>
+        <v>1.004299918606642</v>
       </c>
       <c r="M11">
-        <v>0.9612298937122803</v>
+        <v>0.9891748779861347</v>
       </c>
       <c r="N11">
-        <v>0.9612298937122803</v>
+        <v>0.9891748779861347</v>
       </c>
       <c r="O11">
-        <v>0.9519157407956801</v>
+        <v>0.9884865205835697</v>
       </c>
       <c r="P11">
-        <v>0.9794760655733864</v>
+        <v>0.9962702211673641</v>
       </c>
       <c r="Q11">
-        <v>0.9794760655733864</v>
+        <v>0.9962702211673641</v>
       </c>
       <c r="R11">
-        <v>0.9885991515039395</v>
+        <v>0.9998178927579788</v>
       </c>
       <c r="S11">
-        <v>0.9885991515039395</v>
+        <v>0.9998178927579788</v>
       </c>
       <c r="T11">
-        <v>0.9998555089220339</v>
+        <v>0.9987255241019395</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.030600282189472</v>
+        <v>1.099287882214125</v>
       </c>
       <c r="D12">
-        <v>1.001040263863157</v>
+        <v>0.9997347744414652</v>
       </c>
       <c r="E12">
-        <v>1.122496313526313</v>
+        <v>1.402643529354982</v>
       </c>
       <c r="F12">
-        <v>0.928913978852632</v>
+        <v>0.7688803991819978</v>
       </c>
       <c r="G12">
-        <v>1.001040263863157</v>
+        <v>0.9997347744414652</v>
       </c>
       <c r="H12">
-        <v>0.8886621848421049</v>
+        <v>0.6398247494840911</v>
       </c>
       <c r="I12">
-        <v>1.042764902094736</v>
+        <v>1.140256264118672</v>
       </c>
       <c r="J12">
-        <v>0.8886621848421049</v>
+        <v>0.6398247494840911</v>
       </c>
       <c r="K12">
-        <v>1.001040263863157</v>
+        <v>0.9997347744414652</v>
       </c>
       <c r="L12">
-        <v>1.042764902094736</v>
+        <v>1.140256264118672</v>
       </c>
       <c r="M12">
-        <v>0.9657135434684205</v>
+        <v>0.8900405068013817</v>
       </c>
       <c r="N12">
-        <v>0.9657135434684205</v>
+        <v>0.8900405068013817</v>
       </c>
       <c r="O12">
-        <v>0.9534470219298243</v>
+        <v>0.8496538042615871</v>
       </c>
       <c r="P12">
-        <v>0.9774891169333326</v>
+        <v>0.9266052626814095</v>
       </c>
       <c r="Q12">
-        <v>0.9774891169333326</v>
+        <v>0.9266052626814094</v>
       </c>
       <c r="R12">
-        <v>0.9833769036657887</v>
+        <v>0.9448876406214234</v>
       </c>
       <c r="S12">
-        <v>0.9833769036657887</v>
+        <v>0.9448876406214234</v>
       </c>
       <c r="T12">
-        <v>1.002412987561403</v>
+        <v>1.008437933132555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9791259715503909</v>
+        <v>1.029450304198838</v>
       </c>
       <c r="D13">
-        <v>0.9818438758286856</v>
+        <v>1.015968409295599</v>
       </c>
       <c r="E13">
-        <v>0.941367615825668</v>
+        <v>1.097967117650727</v>
       </c>
       <c r="F13">
-        <v>1.046041405094821</v>
+        <v>0.9332874349624798</v>
       </c>
       <c r="G13">
-        <v>0.9818438758286856</v>
+        <v>1.015968409295599</v>
       </c>
       <c r="H13">
-        <v>1.082895715139284</v>
+        <v>0.8874613805250366</v>
       </c>
       <c r="I13">
-        <v>0.9780074925758833</v>
+        <v>1.034998406899524</v>
       </c>
       <c r="J13">
-        <v>1.082895715139284</v>
+        <v>0.8874613805250366</v>
       </c>
       <c r="K13">
-        <v>0.9818438758286856</v>
+        <v>1.015968409295599</v>
       </c>
       <c r="L13">
-        <v>0.9780074925758833</v>
+        <v>1.034998406899524</v>
       </c>
       <c r="M13">
-        <v>1.030451603857584</v>
+        <v>0.9612298937122803</v>
       </c>
       <c r="N13">
-        <v>1.030451603857584</v>
+        <v>0.9612298937122803</v>
       </c>
       <c r="O13">
-        <v>1.035648204269996</v>
+        <v>0.9519157407956801</v>
       </c>
       <c r="P13">
-        <v>1.014249027847951</v>
+        <v>0.9794760655733864</v>
       </c>
       <c r="Q13">
-        <v>1.014249027847951</v>
+        <v>0.9794760655733864</v>
       </c>
       <c r="R13">
-        <v>1.006147739843135</v>
+        <v>0.9885991515039395</v>
       </c>
       <c r="S13">
-        <v>1.006147739843135</v>
+        <v>0.9885991515039395</v>
       </c>
       <c r="T13">
-        <v>1.001547012669122</v>
+        <v>0.9998555089220339</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.1712413</v>
+        <v>1.030600282189472</v>
       </c>
       <c r="D14">
-        <v>0.9953291</v>
+        <v>1.001040263863157</v>
       </c>
       <c r="E14">
-        <v>1.700309899999997</v>
+        <v>1.122496313526313</v>
       </c>
       <c r="F14">
-        <v>0.6008495100000008</v>
+        <v>0.928913978852632</v>
       </c>
       <c r="G14">
-        <v>0.9953291</v>
+        <v>1.001040263863157</v>
       </c>
       <c r="H14">
-        <v>0.3803151199999996</v>
+        <v>0.8886621848421049</v>
       </c>
       <c r="I14">
-        <v>1.243633200000001</v>
+        <v>1.042764902094736</v>
       </c>
       <c r="J14">
-        <v>0.3803151199999996</v>
+        <v>0.8886621848421049</v>
       </c>
       <c r="K14">
-        <v>0.9953291</v>
+        <v>1.001040263863157</v>
       </c>
       <c r="L14">
-        <v>1.243633200000001</v>
+        <v>1.042764902094736</v>
       </c>
       <c r="M14">
-        <v>0.8119741600000002</v>
+        <v>0.9657135434684205</v>
       </c>
       <c r="N14">
-        <v>0.8119741600000002</v>
+        <v>0.9657135434684205</v>
       </c>
       <c r="O14">
-        <v>0.7415992766666671</v>
+        <v>0.9534470219298243</v>
       </c>
       <c r="P14">
-        <v>0.8730924733333335</v>
+        <v>0.9774891169333326</v>
       </c>
       <c r="Q14">
-        <v>0.8730924733333335</v>
+        <v>0.9774891169333326</v>
       </c>
       <c r="R14">
-        <v>0.9036516300000002</v>
+        <v>0.9833769036657887</v>
       </c>
       <c r="S14">
-        <v>0.9036516300000002</v>
+        <v>0.9833769036657887</v>
       </c>
       <c r="T14">
-        <v>1.015279688333333</v>
+        <v>1.002412987561403</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1014624</v>
+        <v>0.9791259715503909</v>
       </c>
       <c r="D15">
-        <v>1.3679559</v>
+        <v>0.9818438758286856</v>
       </c>
       <c r="E15">
-        <v>0.9618347200000001</v>
+        <v>0.941367615825668</v>
       </c>
       <c r="F15">
-        <v>0.7938064500000001</v>
+        <v>1.046041405094821</v>
       </c>
       <c r="G15">
-        <v>1.3679559</v>
+        <v>0.9818438758286856</v>
       </c>
       <c r="H15">
-        <v>0.5229061699999999</v>
+        <v>1.082895715139284</v>
       </c>
       <c r="I15">
-        <v>0.99179431</v>
+        <v>0.9780074925758833</v>
       </c>
       <c r="J15">
-        <v>0.5229061699999999</v>
+        <v>1.082895715139284</v>
       </c>
       <c r="K15">
-        <v>1.3679559</v>
+        <v>0.9818438758286856</v>
       </c>
       <c r="L15">
-        <v>0.99179431</v>
+        <v>0.9780074925758833</v>
       </c>
       <c r="M15">
-        <v>0.75735024</v>
+        <v>1.030451603857584</v>
       </c>
       <c r="N15">
-        <v>0.75735024</v>
+        <v>1.030451603857584</v>
       </c>
       <c r="O15">
-        <v>0.76950231</v>
+        <v>1.035648204269996</v>
       </c>
       <c r="P15">
-        <v>0.9608854599999997</v>
+        <v>1.014249027847951</v>
       </c>
       <c r="Q15">
-        <v>0.9608854599999997</v>
+        <v>1.014249027847951</v>
       </c>
       <c r="R15">
-        <v>1.06265307</v>
+        <v>1.006147739843135</v>
       </c>
       <c r="S15">
-        <v>1.06265307</v>
+        <v>1.006147739843135</v>
       </c>
       <c r="T15">
-        <v>0.9566266583333332</v>
+        <v>1.001547012669122</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1927336</v>
+        <v>1.1712413</v>
       </c>
       <c r="D16">
-        <v>0.98338768</v>
+        <v>0.9953291</v>
       </c>
       <c r="E16">
-        <v>1.8205079</v>
+        <v>1.700309899999997</v>
       </c>
       <c r="F16">
-        <v>0.54499978</v>
+        <v>0.6008495100000008</v>
       </c>
       <c r="G16">
-        <v>0.98338768</v>
+        <v>0.9953291</v>
       </c>
       <c r="H16">
-        <v>0.31101525</v>
+        <v>0.3803151199999996</v>
       </c>
       <c r="I16">
-        <v>1.2788842</v>
+        <v>1.243633200000001</v>
       </c>
       <c r="J16">
-        <v>0.31101525</v>
+        <v>0.3803151199999996</v>
       </c>
       <c r="K16">
-        <v>0.98338768</v>
+        <v>0.9953291</v>
       </c>
       <c r="L16">
-        <v>1.2788842</v>
+        <v>1.243633200000001</v>
       </c>
       <c r="M16">
-        <v>0.7949497250000001</v>
+        <v>0.8119741600000002</v>
       </c>
       <c r="N16">
-        <v>0.7949497250000001</v>
+        <v>0.8119741600000002</v>
       </c>
       <c r="O16">
-        <v>0.7116330766666668</v>
+        <v>0.7415992766666671</v>
       </c>
       <c r="P16">
-        <v>0.8577623766666668</v>
+        <v>0.8730924733333335</v>
       </c>
       <c r="Q16">
-        <v>0.8577623766666665</v>
+        <v>0.8730924733333335</v>
       </c>
       <c r="R16">
-        <v>0.8891687024999999</v>
+        <v>0.9036516300000002</v>
       </c>
       <c r="S16">
-        <v>0.8891687024999999</v>
+        <v>0.9036516300000002</v>
       </c>
       <c r="T16">
-        <v>1.021921401666667</v>
+        <v>1.015279688333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.95743351</v>
+        <v>1.1014624</v>
       </c>
       <c r="D17">
-        <v>0.9731181</v>
+        <v>1.3679559</v>
       </c>
       <c r="E17">
-        <v>0.87603166</v>
+        <v>0.9618347200000001</v>
       </c>
       <c r="F17">
-        <v>1.0922641</v>
+        <v>0.7938064500000001</v>
       </c>
       <c r="G17">
-        <v>0.9731181</v>
+        <v>1.3679559</v>
       </c>
       <c r="H17">
-        <v>1.1717494</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="I17">
-        <v>0.9509789400000002</v>
+        <v>0.99179431</v>
       </c>
       <c r="J17">
-        <v>1.1717494</v>
+        <v>0.5229061699999999</v>
       </c>
       <c r="K17">
-        <v>0.9731181</v>
+        <v>1.3679559</v>
       </c>
       <c r="L17">
-        <v>0.9509789400000002</v>
+        <v>0.99179431</v>
       </c>
       <c r="M17">
-        <v>1.06136417</v>
+        <v>0.75735024</v>
       </c>
       <c r="N17">
-        <v>1.06136417</v>
+        <v>0.75735024</v>
       </c>
       <c r="O17">
-        <v>1.071664146666667</v>
+        <v>0.76950231</v>
       </c>
       <c r="P17">
-        <v>1.031948813333333</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="Q17">
-        <v>1.031948813333333</v>
+        <v>0.9608854599999997</v>
       </c>
       <c r="R17">
-        <v>1.017241135</v>
+        <v>1.06265307</v>
       </c>
       <c r="S17">
-        <v>1.017241135</v>
+        <v>1.06265307</v>
       </c>
       <c r="T17">
-        <v>1.003595951666667</v>
+        <v>0.9566266583333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.073538549041096</v>
+        <v>1.1927336</v>
       </c>
       <c r="D18">
-        <v>1.131962023287671</v>
+        <v>0.98338768</v>
       </c>
       <c r="E18">
-        <v>1.117321599452055</v>
+        <v>1.8205079</v>
       </c>
       <c r="F18">
-        <v>0.8450648163013699</v>
+        <v>0.54499978</v>
       </c>
       <c r="G18">
-        <v>1.131962023287671</v>
+        <v>0.98338768</v>
       </c>
       <c r="H18">
-        <v>0.6850971047945206</v>
+        <v>0.31101525</v>
       </c>
       <c r="I18">
-        <v>1.049495933835616</v>
+        <v>1.2788842</v>
       </c>
       <c r="J18">
-        <v>0.6850971047945206</v>
+        <v>0.31101525</v>
       </c>
       <c r="K18">
-        <v>1.131962023287671</v>
+        <v>0.98338768</v>
       </c>
       <c r="L18">
-        <v>1.049495933835616</v>
+        <v>1.2788842</v>
       </c>
       <c r="M18">
-        <v>0.8672965193150686</v>
+        <v>0.7949497250000001</v>
       </c>
       <c r="N18">
-        <v>0.8672965193150686</v>
+        <v>0.7949497250000001</v>
       </c>
       <c r="O18">
-        <v>0.8598859516438356</v>
+        <v>0.7116330766666668</v>
       </c>
       <c r="P18">
-        <v>0.9555183539726025</v>
+        <v>0.8577623766666668</v>
       </c>
       <c r="Q18">
-        <v>0.9555183539726025</v>
+        <v>0.8577623766666665</v>
       </c>
       <c r="R18">
-        <v>0.9996292713013697</v>
+        <v>0.8891687024999999</v>
       </c>
       <c r="S18">
-        <v>0.9996292713013697</v>
+        <v>0.8891687024999999</v>
       </c>
       <c r="T18">
-        <v>0.9837466711187215</v>
+        <v>1.021921401666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.034633363157895</v>
+        <v>0.95743351</v>
       </c>
       <c r="D19">
-        <v>0.9591053063157894</v>
+        <v>0.9731181</v>
       </c>
       <c r="E19">
-        <v>1.210429528421053</v>
+        <v>0.87603166</v>
       </c>
       <c r="F19">
-        <v>0.9102952789473686</v>
+        <v>1.0922641</v>
       </c>
       <c r="G19">
-        <v>0.9591053063157894</v>
+        <v>0.9731181</v>
       </c>
       <c r="H19">
-        <v>0.8967398173684209</v>
+        <v>1.1717494</v>
       </c>
       <c r="I19">
-        <v>1.065714882631579</v>
+        <v>0.9509789400000002</v>
       </c>
       <c r="J19">
-        <v>0.8967398173684209</v>
+        <v>1.1717494</v>
       </c>
       <c r="K19">
-        <v>0.9591053063157894</v>
+        <v>0.9731181</v>
       </c>
       <c r="L19">
-        <v>1.065714882631579</v>
+        <v>0.9509789400000002</v>
       </c>
       <c r="M19">
-        <v>0.9812273499999999</v>
+        <v>1.06136417</v>
       </c>
       <c r="N19">
-        <v>0.9812273499999999</v>
+        <v>1.06136417</v>
       </c>
       <c r="O19">
-        <v>0.9575833263157895</v>
+        <v>1.071664146666667</v>
       </c>
       <c r="P19">
-        <v>0.9738533354385964</v>
+        <v>1.031948813333333</v>
       </c>
       <c r="Q19">
-        <v>0.9738533354385964</v>
+        <v>1.031948813333333</v>
       </c>
       <c r="R19">
-        <v>0.9701663281578946</v>
+        <v>1.017241135</v>
       </c>
       <c r="S19">
-        <v>0.9701663281578946</v>
+        <v>1.017241135</v>
       </c>
       <c r="T19">
-        <v>1.012819696140351</v>
+        <v>1.003595951666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.086391</v>
+        <v>1.073538549041096</v>
       </c>
       <c r="D20">
-        <v>1.15470045368421</v>
+        <v>1.131962023287671</v>
       </c>
       <c r="E20">
-        <v>1.141658918947368</v>
+        <v>1.117321599452055</v>
       </c>
       <c r="F20">
-        <v>0.8168903068421052</v>
+        <v>0.8450648163013699</v>
       </c>
       <c r="G20">
-        <v>1.15470045368421</v>
+        <v>1.131962023287671</v>
       </c>
       <c r="H20">
-        <v>0.6327596221052632</v>
+        <v>0.6850971047945206</v>
       </c>
       <c r="I20">
-        <v>1.05828011631579</v>
+        <v>1.049495933835616</v>
       </c>
       <c r="J20">
-        <v>0.6327596221052632</v>
+        <v>0.6850971047945206</v>
       </c>
       <c r="K20">
-        <v>1.15470045368421</v>
+        <v>1.131962023287671</v>
       </c>
       <c r="L20">
-        <v>1.05828011631579</v>
+        <v>1.049495933835616</v>
       </c>
       <c r="M20">
-        <v>0.8455198692105265</v>
+        <v>0.8672965193150686</v>
       </c>
       <c r="N20">
-        <v>0.8455198692105265</v>
+        <v>0.8672965193150686</v>
       </c>
       <c r="O20">
-        <v>0.835976681754386</v>
+        <v>0.8598859516438356</v>
       </c>
       <c r="P20">
-        <v>0.9485800640350878</v>
+        <v>0.9555183539726025</v>
       </c>
       <c r="Q20">
-        <v>0.9485800640350878</v>
+        <v>0.9555183539726025</v>
       </c>
       <c r="R20">
-        <v>1.000110161447368</v>
+        <v>0.9996292713013697</v>
       </c>
       <c r="S20">
-        <v>1.000110161447368</v>
+        <v>0.9996292713013697</v>
       </c>
       <c r="T20">
-        <v>0.9817800696491229</v>
+        <v>0.9837466711187215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9233386069230317</v>
+        <v>1.034633363157895</v>
       </c>
       <c r="D21">
-        <v>0.9274202683663757</v>
+        <v>0.9591053063157894</v>
       </c>
       <c r="E21">
-        <v>0.8060634505657658</v>
+        <v>1.210429528421053</v>
       </c>
       <c r="F21">
-        <v>1.164549136715304</v>
+        <v>0.9102952789473686</v>
       </c>
       <c r="G21">
-        <v>0.9274202683663757</v>
+        <v>0.9591053063157894</v>
       </c>
       <c r="H21">
-        <v>1.31346954971159</v>
+        <v>0.8967398173684209</v>
       </c>
       <c r="I21">
-        <v>0.9216589060513284</v>
+        <v>1.065714882631579</v>
       </c>
       <c r="J21">
-        <v>1.31346954971159</v>
+        <v>0.8967398173684209</v>
       </c>
       <c r="K21">
-        <v>0.9274202683663757</v>
+        <v>0.9591053063157894</v>
       </c>
       <c r="L21">
-        <v>0.9216589060513284</v>
+        <v>1.065714882631579</v>
       </c>
       <c r="M21">
-        <v>1.117564227881459</v>
+        <v>0.9812273499999999</v>
       </c>
       <c r="N21">
-        <v>1.117564227881459</v>
+        <v>0.9812273499999999</v>
       </c>
       <c r="O21">
-        <v>1.133225864159408</v>
+        <v>0.9575833263157895</v>
       </c>
       <c r="P21">
-        <v>1.054182908043098</v>
+        <v>0.9738533354385964</v>
       </c>
       <c r="Q21">
-        <v>1.054182908043098</v>
+        <v>0.9738533354385964</v>
       </c>
       <c r="R21">
-        <v>1.022492248123918</v>
+        <v>0.9701663281578946</v>
       </c>
       <c r="S21">
-        <v>1.022492248123918</v>
+        <v>0.9701663281578946</v>
       </c>
       <c r="T21">
-        <v>1.009416653055566</v>
+        <v>1.012819696140351</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9815505541449745</v>
+        <v>1.086391</v>
       </c>
       <c r="D22">
-        <v>0.9732590742496815</v>
+        <v>1.15470045368421</v>
       </c>
       <c r="E22">
-        <v>0.9427257328289709</v>
+        <v>1.141658918947368</v>
       </c>
       <c r="F22">
-        <v>1.045189528217952</v>
+        <v>0.8168903068421052</v>
       </c>
       <c r="G22">
-        <v>0.9732590742496815</v>
+        <v>1.15470045368421</v>
       </c>
       <c r="H22">
-        <v>1.066254135915258</v>
+        <v>0.6327596221052632</v>
       </c>
       <c r="I22">
-        <v>0.9849626965304025</v>
+        <v>1.05828011631579</v>
       </c>
       <c r="J22">
-        <v>1.066254135915258</v>
+        <v>0.6327596221052632</v>
       </c>
       <c r="K22">
-        <v>0.9732590742496815</v>
+        <v>1.15470045368421</v>
       </c>
       <c r="L22">
-        <v>0.9849626965304025</v>
+        <v>1.05828011631579</v>
       </c>
       <c r="M22">
-        <v>1.02560841622283</v>
+        <v>0.8455198692105265</v>
       </c>
       <c r="N22">
-        <v>1.02560841622283</v>
+        <v>0.8455198692105265</v>
       </c>
       <c r="O22">
-        <v>1.032135453554538</v>
+        <v>0.835976681754386</v>
       </c>
       <c r="P22">
-        <v>1.008158635565114</v>
+        <v>0.9485800640350878</v>
       </c>
       <c r="Q22">
-        <v>1.008158635565114</v>
+        <v>0.9485800640350878</v>
       </c>
       <c r="R22">
-        <v>0.9994337452362559</v>
+        <v>1.000110161447368</v>
       </c>
       <c r="S22">
-        <v>0.9994337452362559</v>
+        <v>1.000110161447368</v>
       </c>
       <c r="T22">
-        <v>0.9989902869812067</v>
+        <v>0.9817800696491229</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9717776769041253</v>
+        <v>0.9233386069230317</v>
       </c>
       <c r="D23">
-        <v>0.9901030767426142</v>
+        <v>0.9274202683663757</v>
       </c>
       <c r="E23">
-        <v>0.8867789051632528</v>
+        <v>0.8060634505657658</v>
       </c>
       <c r="F23">
-        <v>1.068026997146558</v>
+        <v>1.164549136715304</v>
       </c>
       <c r="G23">
-        <v>0.9901030767426142</v>
+        <v>0.9274202683663757</v>
       </c>
       <c r="H23">
-        <v>1.099604240450639</v>
+        <v>1.31346954971159</v>
       </c>
       <c r="I23">
-        <v>0.964236362747909</v>
+        <v>0.9216589060513284</v>
       </c>
       <c r="J23">
-        <v>1.099604240450639</v>
+        <v>1.31346954971159</v>
       </c>
       <c r="K23">
-        <v>0.9901030767426142</v>
+        <v>0.9274202683663757</v>
       </c>
       <c r="L23">
-        <v>0.964236362747909</v>
+        <v>0.9216589060513284</v>
       </c>
       <c r="M23">
-        <v>1.031920301599274</v>
+        <v>1.117564227881459</v>
       </c>
       <c r="N23">
-        <v>1.031920301599274</v>
+        <v>1.117564227881459</v>
       </c>
       <c r="O23">
-        <v>1.043955866781702</v>
+        <v>1.133225864159408</v>
       </c>
       <c r="P23">
-        <v>1.017981226647054</v>
+        <v>1.054182908043098</v>
       </c>
       <c r="Q23">
-        <v>1.017981226647054</v>
+        <v>1.054182908043098</v>
       </c>
       <c r="R23">
-        <v>1.011011689170944</v>
+        <v>1.022492248123918</v>
       </c>
       <c r="S23">
-        <v>1.011011689170944</v>
+        <v>1.022492248123918</v>
       </c>
       <c r="T23">
-        <v>0.9967545431925164</v>
+        <v>1.009416653055566</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9900205063305437</v>
+        <v>0.9815505541449745</v>
       </c>
       <c r="D24">
-        <v>0.9865851264171546</v>
+        <v>0.9732590742496815</v>
       </c>
       <c r="E24">
-        <v>0.993867543274467</v>
+        <v>0.9427257328289709</v>
       </c>
       <c r="F24">
-        <v>1.017027769342142</v>
+        <v>1.045189528217952</v>
       </c>
       <c r="G24">
-        <v>0.9865851264171546</v>
+        <v>0.9732590742496815</v>
       </c>
       <c r="H24">
-        <v>1.049169319746993</v>
+        <v>1.066254135915258</v>
       </c>
       <c r="I24">
-        <v>0.9914342401947632</v>
+        <v>0.9849626965304025</v>
       </c>
       <c r="J24">
-        <v>1.049169319746993</v>
+        <v>1.066254135915258</v>
       </c>
       <c r="K24">
-        <v>0.9865851264171546</v>
+        <v>0.9732590742496815</v>
       </c>
       <c r="L24">
-        <v>0.9914342401947632</v>
+        <v>0.9849626965304025</v>
       </c>
       <c r="M24">
-        <v>1.020301779970878</v>
+        <v>1.02560841622283</v>
       </c>
       <c r="N24">
-        <v>1.020301779970878</v>
+        <v>1.02560841622283</v>
       </c>
       <c r="O24">
-        <v>1.019210443094633</v>
+        <v>1.032135453554538</v>
       </c>
       <c r="P24">
-        <v>1.00906289545297</v>
+        <v>1.008158635565114</v>
       </c>
       <c r="Q24">
-        <v>1.00906289545297</v>
+        <v>1.008158635565114</v>
       </c>
       <c r="R24">
-        <v>1.003443453194016</v>
+        <v>0.9994337452362559</v>
       </c>
       <c r="S24">
-        <v>1.003443453194016</v>
+        <v>0.9994337452362559</v>
       </c>
       <c r="T24">
-        <v>1.004684084217677</v>
+        <v>0.9989902869812067</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.048288748384161</v>
+        <v>0.9717776769041253</v>
       </c>
       <c r="D25">
-        <v>1.170804741177534</v>
+        <v>0.9901030767426142</v>
       </c>
       <c r="E25">
-        <v>0.9709460032307416</v>
+        <v>0.8867789051632528</v>
       </c>
       <c r="F25">
-        <v>0.9061303568451099</v>
+        <v>1.068026997146558</v>
       </c>
       <c r="G25">
-        <v>1.170804741177534</v>
+        <v>0.9901030767426142</v>
       </c>
       <c r="H25">
-        <v>0.7660126540988763</v>
+        <v>1.099604240450639</v>
       </c>
       <c r="I25">
-        <v>0.9978706493416439</v>
+        <v>0.964236362747909</v>
       </c>
       <c r="J25">
-        <v>0.7660126540988763</v>
+        <v>1.099604240450639</v>
       </c>
       <c r="K25">
-        <v>1.170804741177534</v>
+        <v>0.9901030767426142</v>
       </c>
       <c r="L25">
-        <v>0.9978706493416439</v>
+        <v>0.964236362747909</v>
       </c>
       <c r="M25">
-        <v>0.8819416517202601</v>
+        <v>1.031920301599274</v>
       </c>
       <c r="N25">
-        <v>0.8819416517202601</v>
+        <v>1.031920301599274</v>
       </c>
       <c r="O25">
-        <v>0.8900045534285433</v>
+        <v>1.043955866781702</v>
       </c>
       <c r="P25">
-        <v>0.9782293482060181</v>
+        <v>1.017981226647054</v>
       </c>
       <c r="Q25">
-        <v>0.9782293482060181</v>
+        <v>1.017981226647054</v>
       </c>
       <c r="R25">
-        <v>1.026373196448897</v>
+        <v>1.011011689170944</v>
       </c>
       <c r="S25">
-        <v>1.026373196448897</v>
+        <v>1.011011689170944</v>
       </c>
       <c r="T25">
-        <v>0.9766755255130111</v>
+        <v>0.9967545431925164</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.008378478316122</v>
+        <v>0.9900205063305437</v>
       </c>
       <c r="D26">
-        <v>0.9539212020975416</v>
+        <v>0.9865851264171546</v>
       </c>
       <c r="E26">
-        <v>1.084883183885407</v>
+        <v>0.993867543274467</v>
       </c>
       <c r="F26">
-        <v>0.9781754819859947</v>
+        <v>1.017027769342142</v>
       </c>
       <c r="G26">
-        <v>0.9539212020975416</v>
+        <v>0.9865851264171546</v>
       </c>
       <c r="H26">
-        <v>0.9814420402170202</v>
+        <v>1.049169319746993</v>
       </c>
       <c r="I26">
-        <v>1.030788878303438</v>
+        <v>0.9914342401947632</v>
       </c>
       <c r="J26">
-        <v>0.9814420402170202</v>
+        <v>1.049169319746993</v>
       </c>
       <c r="K26">
-        <v>0.9539212020975416</v>
+        <v>0.9865851264171546</v>
       </c>
       <c r="L26">
-        <v>1.030788878303438</v>
+        <v>0.9914342401947632</v>
       </c>
       <c r="M26">
-        <v>1.006115459260229</v>
+        <v>1.020301779970878</v>
       </c>
       <c r="N26">
-        <v>1.006115459260229</v>
+        <v>1.020301779970878</v>
       </c>
       <c r="O26">
-        <v>0.996802133502151</v>
+        <v>1.019210443094633</v>
       </c>
       <c r="P26">
-        <v>0.9887173735393332</v>
+        <v>1.00906289545297</v>
       </c>
       <c r="Q26">
-        <v>0.9887173735393332</v>
+        <v>1.00906289545297</v>
       </c>
       <c r="R26">
-        <v>0.9800183306788853</v>
+        <v>1.003443453194016</v>
       </c>
       <c r="S26">
-        <v>0.9800183306788853</v>
+        <v>1.003443453194016</v>
       </c>
       <c r="T26">
-        <v>1.006264877467587</v>
+        <v>1.004684084217677</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.011272863400434</v>
+        <v>1.048288748384161</v>
       </c>
       <c r="D27">
-        <v>1.015835598680657</v>
+        <v>1.170804741177534</v>
       </c>
       <c r="E27">
-        <v>1.024562303027936</v>
+        <v>0.9709460032307416</v>
       </c>
       <c r="F27">
-        <v>0.9754579617518367</v>
+        <v>0.9061303568451099</v>
       </c>
       <c r="G27">
-        <v>1.015835598680657</v>
+        <v>1.170804741177534</v>
       </c>
       <c r="H27">
-        <v>0.9544922846556952</v>
+        <v>0.7660126540988763</v>
       </c>
       <c r="I27">
-        <v>1.009395235399992</v>
+        <v>0.9978706493416439</v>
       </c>
       <c r="J27">
-        <v>0.9544922846556952</v>
+        <v>0.7660126540988763</v>
       </c>
       <c r="K27">
-        <v>1.015835598680657</v>
+        <v>1.170804741177534</v>
       </c>
       <c r="L27">
-        <v>1.009395235399992</v>
+        <v>0.9978706493416439</v>
       </c>
       <c r="M27">
-        <v>0.9819437600278436</v>
+        <v>0.8819416517202601</v>
       </c>
       <c r="N27">
-        <v>0.9819437600278436</v>
+        <v>0.8819416517202601</v>
       </c>
       <c r="O27">
-        <v>0.9797818272691746</v>
+        <v>0.8900045534285433</v>
       </c>
       <c r="P27">
-        <v>0.9932410395787814</v>
+        <v>0.9782293482060181</v>
       </c>
       <c r="Q27">
-        <v>0.9932410395787815</v>
+        <v>0.9782293482060181</v>
       </c>
       <c r="R27">
-        <v>0.9988896793542505</v>
+        <v>1.026373196448897</v>
       </c>
       <c r="S27">
-        <v>0.9988896793542505</v>
+        <v>1.026373196448897</v>
       </c>
       <c r="T27">
-        <v>0.9985027078194252</v>
+        <v>0.9766755255130111</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.005880915685563</v>
+        <v>1.008378478316122</v>
       </c>
       <c r="D28">
-        <v>1.016142682431906</v>
+        <v>0.9539212020975416</v>
       </c>
       <c r="E28">
-        <v>0.9984726828593128</v>
+        <v>1.084883183885407</v>
       </c>
       <c r="F28">
-        <v>0.9891447395836463</v>
+        <v>0.9781754819859947</v>
       </c>
       <c r="G28">
-        <v>1.016142682431906</v>
+        <v>0.9539212020975416</v>
       </c>
       <c r="H28">
-        <v>0.9719295624541677</v>
+        <v>0.9814420402170202</v>
       </c>
       <c r="I28">
-        <v>1.001657963261461</v>
+        <v>1.030788878303438</v>
       </c>
       <c r="J28">
-        <v>0.9719295624541677</v>
+        <v>0.9814420402170202</v>
       </c>
       <c r="K28">
-        <v>1.016142682431906</v>
+        <v>0.9539212020975416</v>
       </c>
       <c r="L28">
-        <v>1.001657963261461</v>
+        <v>1.030788878303438</v>
       </c>
       <c r="M28">
-        <v>0.9867937628578144</v>
+        <v>1.006115459260229</v>
       </c>
       <c r="N28">
-        <v>0.9867937628578144</v>
+        <v>1.006115459260229</v>
       </c>
       <c r="O28">
-        <v>0.9875774217664249</v>
+        <v>0.996802133502151</v>
       </c>
       <c r="P28">
-        <v>0.9965767360491782</v>
+        <v>0.9887173735393332</v>
       </c>
       <c r="Q28">
-        <v>0.9965767360491782</v>
+        <v>0.9887173735393332</v>
       </c>
       <c r="R28">
-        <v>1.00146822264486</v>
+        <v>0.9800183306788853</v>
       </c>
       <c r="S28">
-        <v>1.00146822264486</v>
+        <v>0.9800183306788853</v>
       </c>
       <c r="T28">
-        <v>0.9972047577126761</v>
+        <v>1.006264877467587</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.011272863400434</v>
+      </c>
+      <c r="D29">
+        <v>1.015835598680657</v>
+      </c>
+      <c r="E29">
+        <v>1.024562303027936</v>
+      </c>
+      <c r="F29">
+        <v>0.9754579617518367</v>
+      </c>
+      <c r="G29">
+        <v>1.015835598680657</v>
+      </c>
+      <c r="H29">
+        <v>0.9544922846556952</v>
+      </c>
+      <c r="I29">
+        <v>1.009395235399992</v>
+      </c>
+      <c r="J29">
+        <v>0.9544922846556952</v>
+      </c>
+      <c r="K29">
+        <v>1.015835598680657</v>
+      </c>
+      <c r="L29">
+        <v>1.009395235399992</v>
+      </c>
+      <c r="M29">
+        <v>0.9819437600278436</v>
+      </c>
+      <c r="N29">
+        <v>0.9819437600278436</v>
+      </c>
+      <c r="O29">
+        <v>0.9797818272691746</v>
+      </c>
+      <c r="P29">
+        <v>0.9932410395787814</v>
+      </c>
+      <c r="Q29">
+        <v>0.9932410395787815</v>
+      </c>
+      <c r="R29">
+        <v>0.9988896793542505</v>
+      </c>
+      <c r="S29">
+        <v>0.9988896793542505</v>
+      </c>
+      <c r="T29">
+        <v>0.9985027078194252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.005880915685563</v>
+      </c>
+      <c r="D30">
+        <v>1.016142682431906</v>
+      </c>
+      <c r="E30">
+        <v>0.9984726828593128</v>
+      </c>
+      <c r="F30">
+        <v>0.9891447395836463</v>
+      </c>
+      <c r="G30">
+        <v>1.016142682431906</v>
+      </c>
+      <c r="H30">
+        <v>0.9719295624541677</v>
+      </c>
+      <c r="I30">
+        <v>1.001657963261461</v>
+      </c>
+      <c r="J30">
+        <v>0.9719295624541677</v>
+      </c>
+      <c r="K30">
+        <v>1.016142682431906</v>
+      </c>
+      <c r="L30">
+        <v>1.001657963261461</v>
+      </c>
+      <c r="M30">
+        <v>0.9867937628578144</v>
+      </c>
+      <c r="N30">
+        <v>0.9867937628578144</v>
+      </c>
+      <c r="O30">
+        <v>0.9875774217664249</v>
+      </c>
+      <c r="P30">
+        <v>0.9965767360491782</v>
+      </c>
+      <c r="Q30">
+        <v>0.9965767360491782</v>
+      </c>
+      <c r="R30">
+        <v>1.00146822264486</v>
+      </c>
+      <c r="S30">
+        <v>1.00146822264486</v>
+      </c>
+      <c r="T30">
+        <v>0.9972047577126761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9709921771012899</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.010243743108648</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.8916816098970854</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.062162124410168</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.010243743108648</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.113087416657934</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9548392806873316</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.113087416657934</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.010243743108648</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9548392806873316</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.033963348672633</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.033963348672633</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.043362940585145</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.026056813484638</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.026056813484638</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.02210354589064</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.02210354589064</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000501058643743</v>
       </c>
     </row>
